--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 3)</t>
+          <t>FAKE(3, 3, 2)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>530.0000000000055</v>
+        <v>530</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>530.0000000000064</v>
+        <v>530.0000000000151</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>530.0000000000064</v>
+        <v>529.9999999999484</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>524.7000000000063</v>
+        <v>524.6999999999695</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>5.300000000000978</v>
+        <v>5.30000000000034</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>5.300000000000978</v>
+        <v>5.300000000000239</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>5.300000000000978</v>
+        <v>5.300000000000137</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.870500000002808</v>
+        <v>1.870499999999819</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.870500000001908</v>
+        <v>1.870500000031706</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1.870500000001908</v>
+        <v>1.870499996795304</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.122300000000905</v>
+        <v>1.122299996161018</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.7482000000007631</v>
+        <v>0.7481999987149381</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01496400000001471</v>
+        <v>0.01496399997429876</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01496400000001471</v>
+        <v>0.01496400002629628</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40.80000000000099</v>
+        <v>40.80000000000291</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>40.80000000000307</v>
+        <v>40.80000000000374</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.80000000000295</v>
+        <v>40.80000000000428</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.80000000000295</v>
+        <v>40.80000000000285</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.80000000000295</v>
+        <v>40.80000000001121</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.80000000001374</v>
+        <v>40.80000000002372</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3.392612710197751</v>
+        <v>3.392612710197732</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.8966052593494326</v>
+        <v>0.8966052593580321</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4200420558307126</v>
+        <v>0.4200420558296405</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         </is>
       </c>
       <c r="V11" s="2" t="n">
-        <v>-3.072658605007906e-11</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8969907511130089</v>
+        <v>0.8969907511095428</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1170669538837508</v>
+        <v>0.1170669538816175</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>70.03710157500599</v>
+        <v>70.03710157497157</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>70.03710157502238</v>
+        <v>70.03710157506977</v>
       </c>
     </row>
     <row r="12">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>71.26725815804008</v>
+        <v>71.26725815803968</v>
       </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>130.6330793633516</v>
+        <v>130.6330793630182</v>
       </c>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>53.81944506678053</v>
+        <v>53.81944506657258</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>16.38937354372511</v>
+        <v>16.38937354342644</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>577.6705000000093</v>
+        <v>577.6705000000027</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>52.12218966437954</v>
+        <v>52.12218966437926</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>572.6705000000113</v>
+        <v>572.6705000000571</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>572.6705000000112</v>
+        <v>572.6704999967311</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>95.54011638723901</v>
+        <v>95.54011638699517</v>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>525.8222999999765</v>
+        <v>525.8222999961305</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>39.361516015976</v>
+        <v>39.36151601582391</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>46.8482000000047</v>
+        <v>46.84819999871813</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>11.98657080972648</v>
+        <v>11.98657080950805</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>46.11496400000394</v>
+        <v>46.11496399998391</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>46.11496400001473</v>
+        <v>46.11496400004839</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 2632.5730268880243</t>
+          <t>Objective function: 2694.394375847522</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>448.8803879220006</v>
+        <v>448.8803879216044</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.98657080955626</v>
+        <v>11.98657080933783</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>460.866958731557</v>
+        <v>460.8669587309423</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>82.40960700000193</v>
+        <v>61.82134895992008</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2810892000000282</v>
+        <v>0.06558747999820538</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>82.69069620000195</v>
+        <v>61.88693643991828</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.977607758440014</v>
+        <v>8.977607758432088</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2397314161911253</v>
+        <v>0.2397314161867566</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.217339174631139</v>
+        <v>9.217339174618845</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-4449.456000000053</v>
+        <v>-4449.455999999741</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-416.1600000001401</v>
+        <v>-416.1600000002419</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-4865.616000000194</v>
+        <v>-4865.615999999984</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-3965.464670986279</v>
+        <v>-3903.643322026451</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-403.9336977743928</v>
+        <v>-403.9336977747174</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-4369.398368760671</v>
+        <v>-4307.577019801169</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.08621242420024</v>
+        <v>3.086212424195077</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03718322449525586</v>
+        <v>0.03718322449524925</v>
       </c>
     </row>
     <row r="29">

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:AM29"/>
+  <dimension ref="A5:AM34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1773,14 +1773,51 @@
         <v>0.03718322449524925</v>
       </c>
     </row>
-    <row r="29">
-      <c r="E29" t="inlineStr">
+    <row r="30">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Additional info (already taken into account)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Membrane Reac</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F31" t="n">
         <v>255.9768237761897</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>ElectricityC</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>30.05980879990572</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>HeatingC</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>32.28624</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>CoolingC</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 2)</t>
+          <t>FAKE(3, 3, 3)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>530.0000000000151</v>
+        <v>530.0000000000005</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>529.9999999999484</v>
+        <v>530.0000000000499</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>524.6999999999695</v>
+        <v>524.7000000001469</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>5.30000000000034</v>
+        <v>5.300000000000519</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>5.300000000000239</v>
+        <v>5.300000000000867</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>5.300000000000137</v>
+        <v>5.300000000002392</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.870499999999819</v>
+        <v>1.87050000000005</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.870500000031706</v>
+        <v>1.870500000877248</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1.870499996795304</v>
+        <v>1.870500000020152</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.122299996161018</v>
+        <v>1.122300000034652</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.7481999987149381</v>
+        <v>0.7482000006375078</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01496399997429876</v>
+        <v>0.01496400001365965</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01496400002629628</v>
+        <v>0.01496400002997872</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40.80000000000291</v>
+        <v>40.80000000000131</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>40.80000000000374</v>
+        <v>40.80000000000378</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.80000000000428</v>
+        <v>40.80000000000378</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.80000000000285</v>
+        <v>40.80000000000378</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.80000000001121</v>
+        <v>40.80000000000378</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.80000000002372</v>
+        <v>40.80000000000378</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3.392612710197732</v>
+        <v>3.392612710197728</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.8966052593580321</v>
+        <v>0.8966052593592713</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4200420558296405</v>
+        <v>0.4200420558318981</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8969907511095428</v>
+        <v>0.8969907511131936</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1170669538816175</v>
+        <v>0.1170669538848072</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>70.03710157497157</v>
+        <v>70.0371015750278</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>70.03710157506977</v>
+        <v>70.0371015750549</v>
       </c>
     </row>
     <row r="12">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>71.26725815803968</v>
+        <v>71.2672581580396</v>
       </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>130.6330793630182</v>
+        <v>130.6330793637203</v>
       </c>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>53.81944506657258</v>
+        <v>53.81944506679162</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>16.38937354342644</v>
+        <v>16.38937354387301</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>577.6705000000027</v>
+        <v>577.6705000000013</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>52.12218966437926</v>
+        <v>52.12218966437919</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>572.6705000000571</v>
+        <v>572.6705000008816</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>572.6704999967311</v>
+        <v>572.6705000000738</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>95.54011638699517</v>
+        <v>95.54011638750868</v>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>525.8222999961305</v>
+        <v>525.8223000001816</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>39.36151601582391</v>
+        <v>39.36151601598411</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>46.84819999871813</v>
+        <v>46.8482000006418</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>11.98657080950805</v>
+        <v>11.98657080983465</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>46.11496399998391</v>
+        <v>46.1149640000183</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>46.11496400004839</v>
+        <v>46.11496400003615</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 2694.394375847522</t>
+          <t>Objective function: 3636.2503758468097</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>448.8803879216044</v>
+        <v>448.8803879222784</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.98657080933783</v>
+        <v>11.98657080966443</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>460.8669587309423</v>
+        <v>460.8669587319428</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.82134895992008</v>
+        <v>61.82134896000293</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.06558747999820538</v>
+        <v>0.3409963357546716</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>61.88693643991828</v>
+        <v>62.1623452957576</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.977607758432088</v>
+        <v>8.977607758445567</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2397314161867566</v>
+        <v>0.2397314161932886</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.217339174618845</v>
+        <v>9.217339174638855</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-4449.455999999741</v>
+        <v>-6296.400000001763</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-416.1600000002419</v>
+        <v>-416.1600000000385</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-4865.615999999984</v>
+        <v>-6712.560000001801</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-3903.643322026451</v>
+        <v>-5750.587322027703</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-403.9336977747174</v>
+        <v>-403.9336977741808</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-4307.577019801169</v>
+        <v>-6154.521019801884</v>
       </c>
     </row>
     <row r="25">
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6998.848</v>
+        <v>9787.647999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.086212424195077</v>
+        <v>3.086212424197937</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03718322449524925</v>
+        <v>0.037183224495197</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30.05980879990572</v>
+        <v>30.05980880001013</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>32.28624</v>
+        <v>34.47686183203001</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.01264901400017329</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 3)</t>
+          <t>FAKE(3, 3, 1)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>530</v>
+        <v>1007</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>530</v>
+        <v>1007</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>530.0000000000005</v>
+        <v>1007.000000000092</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>530.0000000000499</v>
+        <v>1007.0000000004</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>524.7000000001469</v>
+        <v>996.9300000003963</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>5.300000000000519</v>
+        <v>10.07000000000409</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>5.300000000000867</v>
+        <v>10.07000000000536</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>5.300000000002392</v>
+        <v>10.07000000000738</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>374.1</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.87050000000005</v>
+        <v>0.5950000000065359</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.870500000877248</v>
+        <v>0.5950000000121475</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1.870500000020152</v>
+        <v>0.5950000000122129</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.122300000034652</v>
+        <v>0.357000000015138</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.7482000006375078</v>
+        <v>0.2380000000056562</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01496400001365965</v>
+        <v>0.004760000006288985</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01496400002997872</v>
+        <v>0.004760000009889128</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>40.8</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40.80000000000131</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>40.80000000000378</v>
+        <v>104.0000000000076</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.80000000000378</v>
+        <v>104.0000000000076</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.80000000000378</v>
+        <v>104.0000000000096</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.80000000000378</v>
+        <v>104.0000000000344</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.80000000000378</v>
+        <v>104.0000000000534</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3687815458688419</v>
+        <v>0.4497710481227841</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3.392612710197728</v>
+        <v>5.074650596418953</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.8966052593592713</v>
+        <v>1.753411596717564</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4200420558318981</v>
+        <v>0.6099931071590476</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.8969907511131936</v>
+        <v>1.369629879820635</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1170669538848072</v>
+        <v>0.2289259294080949</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>70.0371015750278</v>
+        <v>173.2510417500812</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1295,32 +1295,50 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>70.0371015750549</v>
+        <v>173.2510417501191</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>53</v>
+      </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8.039437699940754</v>
-      </c>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
+        <v>9.805008849076694</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>53</v>
+      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>71.2672581580396</v>
-      </c>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
+        <v>106.6011552187344</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>53</v>
+      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1329,38 +1347,62 @@
       <c r="N12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>53</v>
+      </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>130.6330793637203</v>
-      </c>
-      <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="n"/>
+        <v>189.7078563264638</v>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>53</v>
+      </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>53.81944506679162</v>
-      </c>
-      <c r="Z12" s="2" t="n"/>
-      <c r="AA12" s="2" t="n"/>
+        <v>82.17779278923808</v>
+      </c>
+      <c r="Z12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="AA12" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>16.38937354387301</v>
-      </c>
-      <c r="AE12" s="2" t="n"/>
-      <c r="AF12" s="2" t="n"/>
+        <v>32.04963011713328</v>
+      </c>
+      <c r="AE12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="AF12" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="AG12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1369,8 +1411,14 @@
       <c r="AH12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" s="2" t="n"/>
-      <c r="AK12" s="2" t="n"/>
+      <c r="AJ12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="AK12" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="AL12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1381,139 +1429,157 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>7.171014349383101</v>
+      </c>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>77.96407178218347</v>
+      </c>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>138.7451843081084</v>
+      </c>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="X13" s="2" t="n">
+        <v>60.10174395179151</v>
+      </c>
+      <c r="Z13" s="2" t="n"/>
+      <c r="AA13" s="2" t="n"/>
+      <c r="AB13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>23.43989291595853</v>
+      </c>
+      <c r="AE13" s="2" t="n"/>
+      <c r="AF13" s="2" t="n"/>
+      <c r="AG13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="AH13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2" t="n"/>
+      <c r="AK13" s="2" t="n"/>
+      <c r="AL13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="AM13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>960.9</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>5.879742078221115</v>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="B14" t="n">
+        <v>1304</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>577.6705000000013</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>52.12218966437919</v>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="G14" t="n">
+        <v>1174.595000000007</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L13" s="2" t="n">
-        <v>572.6705000008816</v>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="L14" t="n">
+        <v>1164.595000000112</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="n">
-        <v>572.6705000000738</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>95.54011638750868</v>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
+      <c r="Q14" t="n">
+        <v>1164.59500000042</v>
+      </c>
+      <c r="U14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="V13" s="2" t="n">
-        <v>525.8223000001816</v>
-      </c>
-      <c r="W13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>39.36151601598411</v>
-      </c>
-      <c r="Z13" s="2" t="inlineStr">
+      <c r="V14" t="n">
+        <v>1050.287000000411</v>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="AA13" s="2" t="n">
-        <v>46.8482000006418</v>
-      </c>
-      <c r="AB13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>11.98657080983465</v>
-      </c>
-      <c r="AE13" s="2" t="inlineStr">
+      <c r="AA14" t="n">
+        <v>114.3080000000193</v>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="AF13" s="2" t="n">
-        <v>46.1149640000183</v>
-      </c>
-      <c r="AG13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2" t="inlineStr">
+      <c r="AF14" t="n">
+        <v>114.0747600000461</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="AK13" s="2" t="n">
-        <v>46.11496400003615</v>
-      </c>
-      <c r="AL13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>0</v>
+      <c r="AK14" t="n">
+        <v>114.0747600000706</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 3636.2503758468097</t>
+          <t>Objective function: -2552.967770264091</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1622,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>448.8803879222784</v>
+        <v>496.077096948875</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.98657080966443</v>
+        <v>23.43989291578831</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1638,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>460.8669587319428</v>
+        <v>519.5169898646633</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1648,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.82134896000293</v>
+        <v>96.38134240000937</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.3409963357546716</v>
+        <v>0.8320193550002475</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>62.1623452957576</v>
+        <v>97.21336175500963</v>
       </c>
     </row>
     <row r="19">
@@ -1608,7 +1674,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.13333333333334</v>
+        <v>52.26666666666667</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1624,7 +1690,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.13333333333334</v>
+        <v>52.26666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1634,7 +1700,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.977607758445567</v>
+        <v>9.9215419389775</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1708,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2397314161932886</v>
+        <v>0.4687978583157662</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1716,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.217339174638855</v>
+        <v>10.39033979729327</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1752,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-6296.400000001763</v>
+        <v>-11963.16000000475</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-416.1600000000385</v>
+        <v>-1060.800000000544</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-6712.560000001801</v>
+        <v>-13023.9600000053</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5750.587322027703</v>
+        <v>654.6466479545286</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1786,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>-403.9336977741808</v>
+        <v>23.90869077410407</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-6154.521019801884</v>
+        <v>678.5553387286327</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1826,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.086212424197937</v>
+        <v>4.717242986509721</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1836,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.037183224495197</v>
+        <v>0.0716480260664049</v>
       </c>
     </row>
     <row r="30">
@@ -1787,7 +1853,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>255.9768237761897</v>
+        <v>212.0950825574143</v>
       </c>
     </row>
     <row r="32">
@@ -1797,7 +1863,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30.05980880001013</v>
+        <v>53.84719200000988</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>34.47686183203001</v>
+        <v>49.15944208000148</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1883,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.01264901400017329</v>
+        <v>0.03086316000001264</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1007</v>
+        <v>530</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1007</v>
+        <v>530</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1007.000000000092</v>
+        <v>530</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1007.0000000004</v>
+        <v>530</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>996.9300000003963</v>
+        <v>530</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>10.07000000000409</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>10.07000000000536</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>10.07000000000738</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>119</v>
+        <v>374.1</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.5950000000065359</v>
+        <v>7.481999999999974</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.5950000000121475</v>
+        <v>7.482000000027362</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.5950000000122129</v>
+        <v>7.482000000029212</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0.357000000015138</v>
+        <v>4.48920000005414</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.2380000000056562</v>
+        <v>2.99280000001714</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.004760000006288985</v>
+        <v>0.05985600001367494</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.004760000009889128</v>
+        <v>0.05985600006117708</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>104</v>
+        <v>40.8</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>104</v>
+        <v>40.80000000000291</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>104.0000000000076</v>
+        <v>40.80000000000587</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>104.0000000000076</v>
+        <v>40.80000000000603</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>104.0000000000096</v>
+        <v>40.80000000000673</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>104.0000000000344</v>
+        <v>40.80000000001802</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>104.0000000000534</v>
+        <v>40.80000000001824</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4497710481227841</v>
+        <v>0.3699618067621486</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0</v>
+        <v>8.000000000000004</v>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>5.074650596418953</v>
+        <v>3.445056944132343</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0</v>
+        <v>8.000000000000703</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.753411596717564</v>
+        <v>1.008803385770046</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>8.000000000000798</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.6099931071590476</v>
+        <v>0.4244100431925497</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.369629879820635</v>
+        <v>0.9048012216072774</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0</v>
+        <v>8.000000000001968</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.2289259294080949</v>
+        <v>0.1252658796189992</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0</v>
+        <v>0.1600000000010104</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>173.2510417500812</v>
+        <v>62.29890630004968</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0</v>
+        <v>0.1600000000066115</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,50 +1295,32 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>173.2510417501191</v>
+        <v>62.29890630013765</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>53</v>
-      </c>
+      <c r="A12" s="2" t="n"/>
+      <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>9.805008849076694</v>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>53</v>
-      </c>
+        <v>8.06516738741484</v>
+      </c>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>106.6011552187344</v>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>53</v>
-      </c>
+        <v>72.36893320261046</v>
+      </c>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1347,62 +1329,38 @@
       <c r="N12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="n">
-        <v>53</v>
-      </c>
+      <c r="P12" s="2" t="n"/>
+      <c r="Q12" s="2" t="n"/>
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>189.7078563264638</v>
-      </c>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="n">
-        <v>53</v>
-      </c>
+        <v>131.991523432883</v>
+      </c>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="n"/>
       <c r="W12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>82.17779278923808</v>
-      </c>
-      <c r="Z12" s="2" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="AA12" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>54.28807329643664</v>
+      </c>
+      <c r="Z12" s="2" t="n"/>
+      <c r="AA12" s="2" t="n"/>
       <c r="AB12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>32.04963011713328</v>
-      </c>
-      <c r="AE12" s="2" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="AF12" s="2" t="n">
-        <v>0</v>
-      </c>
+        <v>17.53722314665989</v>
+      </c>
+      <c r="AE12" s="2" t="n"/>
+      <c r="AF12" s="2" t="n"/>
       <c r="AG12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1411,14 +1369,8 @@
       <c r="AH12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" s="2" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="AK12" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="AJ12" s="2" t="n"/>
+      <c r="AK12" s="2" t="n"/>
       <c r="AL12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1429,28 +1381,46 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>965.9</v>
+      </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
           <t>AIC</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>7.171014349383101</v>
-      </c>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
+        <v>5.898559803010745</v>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>596.2820000000029</v>
+      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
           <t>AIC</t>
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>77.96407178218347</v>
-      </c>
-      <c r="K13" s="2" t="n"/>
-      <c r="L13" s="2" t="n"/>
+        <v>52.92791331792989</v>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>586.2820000000339</v>
+      </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
           <t>AIC</t>
@@ -1459,38 +1429,62 @@
       <c r="N13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="2" t="n"/>
-      <c r="Q13" s="2" t="n"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>586.2820000000361</v>
+      </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>AIC</t>
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>138.7451843081084</v>
-      </c>
-      <c r="U13" s="2" t="n"/>
-      <c r="V13" s="2" t="n"/>
+        <v>96.53363123922827</v>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>534.4892000000541</v>
+      </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
           <t>AIC</t>
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>60.10174395179151</v>
-      </c>
-      <c r="Z13" s="2" t="n"/>
-      <c r="AA13" s="2" t="n"/>
+        <v>39.70425306100238</v>
+      </c>
+      <c r="Z13" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AA13" s="2" t="n">
+        <v>51.79280000002584</v>
+      </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
           <t>AIC</t>
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>23.43989291595853</v>
-      </c>
-      <c r="AE13" s="2" t="n"/>
-      <c r="AF13" s="2" t="n"/>
+        <v>12.82606479696078</v>
+      </c>
+      <c r="AE13" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AF13" s="2" t="n">
+        <v>41.01985600003271</v>
+      </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
           <t>AIC</t>
@@ -1499,8 +1493,14 @@
       <c r="AH13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" s="2" t="n"/>
-      <c r="AK13" s="2" t="n"/>
+      <c r="AJ13" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="AK13" s="2" t="n">
+        <v>41.01985600008603</v>
+      </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
           <t>AIC</t>
@@ -1508,78 +1508,12 @@
       </c>
       <c r="AM13" s="2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1304</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1174.595000000007</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1164.595000000112</v>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>1164.59500000042</v>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="V14" t="n">
-        <v>1050.287000000411</v>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="AA14" t="n">
-        <v>114.3080000000193</v>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="AF14" t="n">
-        <v>114.0747600000461</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="AK14" t="n">
-        <v>114.0747600000706</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -2552.967770264091</t>
+          <t>Objective function: 3620.8062541196905</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>496.077096948875</v>
+        <v>451.0411811973609</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1630,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23.43989291578831</v>
+        <v>12.82606479684706</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>519.5169898646633</v>
+        <v>463.8672459942079</v>
       </c>
     </row>
     <row r="18">
@@ -1648,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>96.38134240000937</v>
+        <v>80.93531569811488</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1656,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.8320193550002475</v>
+        <v>3.015894744001506</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1664,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>97.21336175500963</v>
+        <v>83.95121044211638</v>
       </c>
     </row>
     <row r="19">
@@ -1700,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.9215419389775</v>
+        <v>9.020823623947217</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1708,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4687978583157662</v>
+        <v>0.2565212959369412</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1716,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10.39033979729327</v>
+        <v>9.277344919884159</v>
       </c>
     </row>
     <row r="21">
@@ -1752,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-11963.16000000475</v>
+        <v>-6360</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1760,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1060.800000000544</v>
+        <v>-416.1600000001861</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-13023.9600000053</v>
+        <v>-6776.160000000186</v>
       </c>
     </row>
     <row r="23">
@@ -1778,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>654.6466479545286</v>
+        <v>593.2639871860896</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1786,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23.90869077410407</v>
+        <v>13.082586092784</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1794,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>678.5553387286327</v>
+        <v>606.3465732788736</v>
       </c>
     </row>
     <row r="25">
@@ -1826,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.717242986509721</v>
+        <v>2.933976119021728</v>
       </c>
     </row>
     <row r="28">
@@ -1836,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0716480260664049</v>
+        <v>0.03770472198095249</v>
       </c>
     </row>
     <row r="30">
@@ -1853,7 +1787,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>212.0950825574143</v>
+        <v>255.9768237761897</v>
       </c>
     </row>
     <row r="32">
@@ -1863,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>53.84719200000988</v>
+        <v>30.62915520000133</v>
       </c>
     </row>
     <row r="33">
@@ -1873,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>49.15944208000148</v>
+        <v>52.83490844800302</v>
       </c>
     </row>
     <row r="34">
@@ -1883,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.03086316000001264</v>
+        <v>0.4871467941120241</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>530</v>
+        <v>1007</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>530</v>
+        <v>1007</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>530</v>
+        <v>1007</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>530</v>
+        <v>1007</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>530</v>
+        <v>996.9300000000072</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>0</v>
+        <v>10.07000000000001</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>0</v>
+        <v>10.07000000000033</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>0</v>
+        <v>10.07000000000002</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>374.1</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.481999999999974</v>
+        <v>2.38000000000011</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>7.482000000027362</v>
+        <v>2.38000000000781</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.482000000029212</v>
+        <v>2.380000000008301</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.48920000005414</v>
+        <v>1.428000000013488</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>2.99280000001714</v>
+        <v>0.9520000000040768</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.05985600001367494</v>
+        <v>0.01904000000810768</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.05985600006117708</v>
+        <v>0.01904000003472872</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>40.8</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40.80000000000291</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>40.80000000000587</v>
+        <v>104.0000000000072</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.80000000000603</v>
+        <v>104.0000000000076</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.80000000000673</v>
+        <v>104.0000000000091</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.80000000001802</v>
+        <v>104.0000000000265</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.80000000001824</v>
+        <v>104.0000000000742</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3699618067621486</v>
+        <v>0.4342669812176609</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3.445056944132343</v>
+        <v>4.987796837644479</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>8.000000000000703</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.008803385770046</v>
+        <v>1.741472498659507</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8.000000000000798</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4244100431925497</v>
+        <v>0.5998832750157022</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9048012216072774</v>
+        <v>1.367613468157301</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>8.000000000001968</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1252658796189992</v>
+        <v>0.2301098538862917</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000010104</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>62.29890630004968</v>
+        <v>173.2727295000613</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1600000000066115</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,32 +1295,50 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>62.29890630013765</v>
+        <v>173.2727295001741</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>53</v>
+      </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8.06516738741484</v>
-      </c>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
+        <v>9.467020190545009</v>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>61</v>
+      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>72.36893320261046</v>
-      </c>
-      <c r="K12" s="2" t="n"/>
-      <c r="L12" s="2" t="n"/>
+        <v>104.7766530496625</v>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>61.00000000000094</v>
+      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1329,38 +1347,62 @@
       <c r="N12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="2" t="n"/>
-      <c r="Q12" s="2" t="n"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="n">
+        <v>61.00000000000101</v>
+      </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>131.991523432883</v>
-      </c>
-      <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="n"/>
+        <v>186.5636985298834</v>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>61.00000000000288</v>
+      </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>54.28807329643664</v>
-      </c>
-      <c r="Z12" s="2" t="n"/>
-      <c r="AA12" s="2" t="n"/>
+        <v>82.05680808943805</v>
+      </c>
+      <c r="Z12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="AA12" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="AB12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>17.53722314665989</v>
-      </c>
-      <c r="AE12" s="2" t="n"/>
-      <c r="AF12" s="2" t="n"/>
+        <v>32.21537954408083</v>
+      </c>
+      <c r="AE12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="AF12" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="AG12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1369,8 +1411,14 @@
       <c r="AH12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" s="2" t="n"/>
-      <c r="AK12" s="2" t="n"/>
+      <c r="AJ12" s="2" t="inlineStr">
+        <is>
+          <t>Oil</t>
+        </is>
+      </c>
+      <c r="AK12" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="AL12" s="2" t="inlineStr">
         <is>
           <t>Final cost</t>
@@ -1381,139 +1429,157 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>6.923822168573627</v>
+      </c>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>76.62969958157835</v>
+      </c>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="n"/>
+      <c r="Q13" s="2" t="n"/>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="n">
+        <v>136.4456656617661</v>
+      </c>
+      <c r="U13" s="2" t="n"/>
+      <c r="V13" s="2" t="n"/>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="X13" s="2" t="n">
+        <v>60.01326029699057</v>
+      </c>
+      <c r="Z13" s="2" t="n"/>
+      <c r="AA13" s="2" t="n"/>
+      <c r="AB13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>23.56111580696641</v>
+      </c>
+      <c r="AE13" s="2" t="n"/>
+      <c r="AF13" s="2" t="n"/>
+      <c r="AG13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="AH13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2" t="n"/>
+      <c r="AK13" s="2" t="n"/>
+      <c r="AL13" s="2" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="AM13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>965.9</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>5.898559803010745</v>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="B14" t="n">
+        <v>1304</v>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G13" s="2" t="n">
-        <v>596.2820000000029</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>52.92791331792989</v>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="G14" t="n">
+        <v>1184.38</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L13" s="2" t="n">
-        <v>586.2820000000339</v>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="L14" t="n">
+        <v>1174.380000000016</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="n">
-        <v>586.2820000000361</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="n">
-        <v>96.53363123922827</v>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
+      <c r="Q14" t="n">
+        <v>1174.380000000017</v>
+      </c>
+      <c r="U14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="V13" s="2" t="n">
-        <v>534.4892000000541</v>
-      </c>
-      <c r="W13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="X13" s="2" t="n">
-        <v>39.70425306100238</v>
-      </c>
-      <c r="Z13" s="2" t="inlineStr">
+      <c r="V14" t="n">
+        <v>1059.358000000024</v>
+      </c>
+      <c r="Z14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="AA13" s="2" t="n">
-        <v>51.79280000002584</v>
-      </c>
-      <c r="AB13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="AC13" s="2" t="n">
-        <v>12.82606479696078</v>
-      </c>
-      <c r="AE13" s="2" t="inlineStr">
+      <c r="AA14" t="n">
+        <v>115.0220000000132</v>
+      </c>
+      <c r="AE14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="AF13" s="2" t="n">
-        <v>41.01985600003271</v>
-      </c>
-      <c r="AG13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="AH13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="2" t="inlineStr">
+      <c r="AF14" t="n">
+        <v>114.089040000035</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="AK13" s="2" t="n">
-        <v>41.01985600008603</v>
-      </c>
-      <c r="AL13" s="2" t="inlineStr">
-        <is>
-          <t>AIC</t>
-        </is>
-      </c>
-      <c r="AM13" s="2" t="n">
-        <v>0</v>
+      <c r="AK14" t="n">
+        <v>114.089040000109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 3620.8062541196905</t>
+          <t>Objective function: -2295.8243111911656</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1622,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>451.0411811973609</v>
+        <v>606.931419788785</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12.82606479684706</v>
+        <v>23.56111580643558</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1638,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>463.8672459942079</v>
+        <v>630.4925355952205</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1648,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.93531569811488</v>
+        <v>228.4042491552034</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.015894744001506</v>
+        <v>6.697731060000768</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>83.95121044211638</v>
+        <v>235.1019802152042</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1700,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.020823623947217</v>
+        <v>12.1386283957757</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1708,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2565212959369412</v>
+        <v>0.4712223161287117</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1716,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.277344919884159</v>
+        <v>12.60985071190441</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1752,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-6360</v>
+        <v>-11963.16000000009</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-416.1600000001861</v>
+        <v>-1060.800000000757</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-6776.160000000186</v>
+        <v>-13023.96000000084</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>593.2639871860896</v>
+        <v>899.7409640064307</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1786,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13.082586092784</v>
+        <v>24.03233812256429</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>606.3465732788736</v>
+        <v>923.7733021289949</v>
       </c>
     </row>
     <row r="25">
@@ -1750,7 +1816,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9787.647999999999</v>
+        <v>9796.768</v>
       </c>
     </row>
     <row r="27">
@@ -1760,7 +1826,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.933976119021728</v>
+        <v>7.523068942719056</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1836,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03770472198095249</v>
+        <v>0.07131773796662197</v>
       </c>
     </row>
     <row r="30">
@@ -1787,7 +1853,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>255.9768237761897</v>
+        <v>326.9189720798765</v>
       </c>
     </row>
     <row r="32">
@@ -1797,7 +1863,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30.62915520000133</v>
+        <v>54.1759680000006</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>52.83490844800302</v>
+        <v>179.7057343200035</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1883,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4871467941120241</v>
+        <v>1.220277895200021</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>996.9300000000072</v>
+        <v>996.9300000000073</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>10.07000000000033</v>
+        <v>10.07000000000002</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.38000000000011</v>
+        <v>2.380000000000001</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.38000000000781</v>
+        <v>2.380000000002839</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2.380000000008301</v>
+        <v>2.3800000000082</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.428000000013488</v>
+        <v>1.428000000013087</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.9520000000040768</v>
+        <v>0.9520000000040936</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01904000000810768</v>
+        <v>0.01904000000821994</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01904000003472872</v>
+        <v>0.01904000003711474</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>104.0000000000072</v>
+        <v>104.0000000000026</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>104.0000000000076</v>
+        <v>104.0000000000078</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>104.0000000000265</v>
+        <v>104.0000000000267</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>104.0000000000742</v>
+        <v>104.0000000000717</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.741472498659507</v>
+        <v>1.741472498659495</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>173.2727295000613</v>
+        <v>173.272729500062</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>173.2727295001741</v>
+        <v>173.2727295001743</v>
       </c>
     </row>
     <row r="12">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="L12" s="2" t="n">
-        <v>61.00000000000094</v>
+        <v>61</v>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1174.380000000016</v>
+        <v>1174.380000000005</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1059.358000000024</v>
+        <v>1059.358000000023</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>114.089040000035</v>
+        <v>114.0890400000387</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>114.089040000109</v>
+        <v>114.0890400001126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -2295.8243111911656</t>
+          <t>Objective function: -2295.8243111911415</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>606.931419788785</v>
+        <v>606.9314197887849</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23.56111580643558</v>
+        <v>23.56111580643274</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>630.4925355952205</v>
+        <v>630.4925355952176</v>
       </c>
     </row>
     <row r="18">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.697731060000768</v>
+        <v>6.69773106000077</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>235.1019802152042</v>
+        <v>235.1019802152041</v>
       </c>
     </row>
     <row r="19">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4712223161287117</v>
+        <v>0.4712223161286548</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12.60985071190441</v>
+        <v>12.60985071190435</v>
       </c>
     </row>
     <row r="21">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1060.800000000757</v>
+        <v>-1060.800000000732</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-13023.96000000084</v>
+        <v>-13023.96000000082</v>
       </c>
     </row>
     <row r="23">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>899.7409640064307</v>
+        <v>899.7409640064304</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24.03233812256429</v>
+        <v>24.03233812256139</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>923.7733021289949</v>
+        <v>923.7733021289918</v>
       </c>
     </row>
     <row r="25">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7.523068942719056</v>
+        <v>7.523068942718984</v>
       </c>
     </row>
     <row r="28">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.07131773796662197</v>
+        <v>0.07131773796663268</v>
       </c>
     </row>
     <row r="30">

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>996.9300000000073</v>
+        <v>1007</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>10.07000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>10.07000000000002</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>10.07000000000002</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.380000000002839</v>
+        <v>2.380000000003294</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.428000000013087</v>
+        <v>1.428000000012518</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.9520000000040936</v>
+        <v>0.9520000000040367</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01904000000821994</v>
+        <v>0.01904000000776405</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01904000003711474</v>
+        <v>0.01904000003233875</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>104.0000000000026</v>
+        <v>104.0000000000028</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>104.0000000000091</v>
+        <v>104.000000000009</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>104.0000000000267</v>
+        <v>104.0000000000265</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>104.0000000000717</v>
+        <v>104.0000000000716</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0</v>
+        <v>7.999999999999946</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.741472498659495</v>
+        <v>1.741472498659496</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0</v>
+        <v>7.999999999999667</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.5998832750157022</v>
+        <v>0.599883275015702</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.367613468157301</v>
+        <v>1.369123524811373</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0</v>
+        <v>7.999999999998845</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.2301098538862917</v>
+        <v>0.2266774677940087</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0</v>
+        <v>0.159999999999683</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>173.272729500062</v>
+        <v>158.2219170000516</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0</v>
+        <v>0.1599999999995597</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>173.2727295001743</v>
+        <v>158.221917000166</v>
       </c>
     </row>
     <row r="12">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="G12" s="2" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="L12" s="2" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         </is>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>61.00000000000101</v>
+        <v>53</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>186.5636985298834</v>
+        <v>186.5636985298833</v>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="V12" s="2" t="n">
-        <v>61.00000000000288</v>
+        <v>53</v>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>82.05680808943805</v>
+        <v>82.14741148868237</v>
       </c>
       <c r="Z12" s="2" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>32.21537954408083</v>
+        <v>31.73484549116121</v>
       </c>
       <c r="AE12" s="2" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>60.01326029699057</v>
+        <v>60.07952421231025</v>
       </c>
       <c r="Z13" s="2" t="n"/>
       <c r="AA13" s="2" t="n"/>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>23.56111580696641</v>
+        <v>23.20967129101595</v>
       </c>
       <c r="AE13" s="2" t="n"/>
       <c r="AF13" s="2" t="n"/>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1174.380000000005</v>
+        <v>1174.380000000006</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1174.380000000017</v>
+        <v>1174.380000000016</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1059.358000000023</v>
+        <v>1061.428000000013</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>115.0220000000132</v>
+        <v>112.9520000000119</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>114.0890400000387</v>
+        <v>104.179040000034</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>114.0890400001126</v>
+        <v>104.1790400001072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -2295.8243111911415</t>
+          <t>Objective function: -2417.1005148963704</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>606.9314197887849</v>
+        <v>606.9976837041048</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23.56111580643274</v>
+        <v>23.20967129079292</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>630.4925355952176</v>
+        <v>630.2073549948977</v>
       </c>
     </row>
     <row r="18">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>228.4042491552034</v>
+        <v>228.6839773632019</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.69773106000077</v>
+        <v>6.577194960000691</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>235.1019802152041</v>
+        <v>235.2611723232026</v>
       </c>
     </row>
     <row r="19">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.1386283957757</v>
+        <v>12.1399536740821</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4712223161286548</v>
+        <v>0.4641934258158583</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12.60985071190435</v>
+        <v>12.60414709989795</v>
       </c>
     </row>
     <row r="21">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-11963.16000000009</v>
+        <v>-12084</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1060.800000000732</v>
+        <v>-1060.800000000731</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-13023.96000000082</v>
+        <v>-13144.80000000073</v>
       </c>
     </row>
     <row r="23">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>899.7409640064304</v>
+        <v>900.0882814080554</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>24.03233812256139</v>
+        <v>23.67386471660877</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>923.7733021289918</v>
+        <v>923.7621461246642</v>
       </c>
     </row>
     <row r="25">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7.523068942718984</v>
+        <v>7.097817153828933</v>
       </c>
     </row>
     <row r="28">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.07131773796663268</v>
+        <v>0.07152182586663175</v>
       </c>
     </row>
     <row r="30">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>54.1759680000006</v>
+        <v>54.17596800000045</v>
       </c>
     </row>
     <row r="33">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>179.7057343200035</v>
+        <v>179.8639651200021</v>
       </c>
     </row>
     <row r="34">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.220277895200021</v>
+        <v>1.221239203200013</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 1)</t>
+          <t>FAKE(3, 3, 3)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.481999999999974</v>
+        <v>7.482000000000004</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>7.482000000027362</v>
+        <v>7.482000000009369</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.482000000029212</v>
+        <v>7.482000000029211</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.48920000005414</v>
+        <v>4.489200000053314</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>2.99280000001714</v>
+        <v>2.992800000016636</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.05985600001367494</v>
+        <v>0.05985600002500568</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.05985600006117708</v>
+        <v>0.05985600007702743</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>40.80000000000587</v>
+        <v>40.80000000000374</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.80000000000673</v>
+        <v>40.8000000000068</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.80000000001802</v>
+        <v>40.80000000001151</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.80000000001824</v>
+        <v>40.80000000002076</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
-        <v>8.000000000000004</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>8.000000000000703</v>
+        <v>8.000000000000236</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.008803385770046</v>
+        <v>0.9171463333698454</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8.000000000000798</v>
+        <v>8.000000000000751</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9048012216072774</v>
+        <v>0.9048012216072802</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>8.000000000001968</v>
+        <v>8.000000000001879</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1252658796189992</v>
+        <v>0.1252658796189983</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000010104</v>
+        <v>0.1600000000016772</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>62.29890630004968</v>
+        <v>62.29890630005801</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1600000000066115</v>
+        <v>0.160000000007271</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>62.29890630013765</v>
+        <v>62.29890630016615</v>
       </c>
     </row>
     <row r="12">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>54.28807329643664</v>
+        <v>54.28807329643681</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>17.53722314665989</v>
+        <v>17.53722314665977</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>586.2820000000339</v>
+        <v>586.2820000000133</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>586.2820000000361</v>
+        <v>586.282000000036</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>534.4892000000541</v>
+        <v>534.4892000000533</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>39.70425306100238</v>
+        <v>39.7042530610025</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>51.79280000002584</v>
+        <v>51.79280000002532</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>12.82606479696078</v>
+        <v>12.82606479696069</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>41.01985600003271</v>
+        <v>41.0198560000382</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>41.01985600008603</v>
+        <v>41.01985600010506</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 3620.8062541196905</t>
+          <t>Objective function: 3620.806254119561</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>451.0411811973609</v>
+        <v>451.041181197361</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12.82606479684706</v>
+        <v>12.82606479674469</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>463.8672459942079</v>
+        <v>463.8672459941057</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.93531569811488</v>
+        <v>80.93531569811483</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.015894744001506</v>
+        <v>3.015894744001475</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>83.95121044211638</v>
+        <v>83.95121044211631</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.020823623947217</v>
+        <v>9.020823623947221</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2565212959369412</v>
+        <v>0.2565212959348937</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.277344919884159</v>
+        <v>9.277344919882115</v>
       </c>
     </row>
     <row r="21">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-416.1600000001861</v>
+        <v>-416.1600000002118</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-6776.160000000186</v>
+        <v>-6776.160000000212</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>593.2639871860896</v>
+        <v>593.2639871860897</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13.082586092784</v>
+        <v>13.08258609267958</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>606.3465732788736</v>
+        <v>606.3465732787693</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.933976119021728</v>
+        <v>2.933976119022388</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03770472198095249</v>
+        <v>0.03770472198095978</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30.62915520000133</v>
+        <v>30.62915520000132</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>52.83490844800302</v>
+        <v>52.83490844800297</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4871467941120241</v>
+        <v>0.4871467941120236</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 1)</t>
+          <t>FAKE(3, 3, 2)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -477,12 +477,12 @@
       </c>
       <c r="AE5" s="1" t="inlineStr">
         <is>
-          <t>Sell3(7, 3, 2)</t>
+          <t>Sell2(7, 3, 1)</t>
         </is>
       </c>
       <c r="AJ5" s="1" t="inlineStr">
         <is>
-          <t>Sell3(8, 3, 2)</t>
+          <t>Sell2(8, 3, 1)</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1007</v>
+        <v>1007.000000080526</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>1007</v>
+        <v>996.9300000797201</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>0</v>
+        <v>10.07000000080526</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>0</v>
+        <v>10.07000000080526</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>0</v>
+        <v>10.07000000080526</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.380000000000001</v>
+        <v>2.380000000069054</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.380000000003294</v>
+        <v>2.380000000069054</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2.3800000000082</v>
+        <v>2.379999999477303</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.428000000012518</v>
+        <v>1.427999999686382</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.9520000000040367</v>
+        <v>0.9519999997909214</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01904000000776405</v>
+        <v>0.01903999999581843</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01904000003233875</v>
+        <v>0.01903999999581843</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>104</v>
+        <v>103.9999999999952</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>104.0000000000028</v>
+        <v>104</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>104.0000000000078</v>
+        <v>104.0000000000216</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0</v>
+        <v>1.039999999999964</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>104.000000000009</v>
+        <v>102.9600000000221</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>104.0000000000265</v>
+        <v>102.9600000000204</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>104.0000000000716</v>
+        <v>102.9600000000133</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>4.987796837644479</v>
+        <v>4.98779683764462</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>7.999999999999946</v>
+        <v>8</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.741472498659496</v>
+        <v>1.800541665729323</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7.999999999999667</v>
+        <v>8</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.599883275015702</v>
+        <v>0.5998832750352978</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.369123524811373</v>
+        <v>1.362536176276862</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>7.999999999998845</v>
+        <v>8</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.2266774677940087</v>
+        <v>0.241650630310388</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.159999999999683</v>
+        <v>0.16</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>158.2219170000516</v>
+        <v>171.9362295012477</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1599999999995597</v>
+        <v>0.16</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>158.221917000166</v>
+        <v>171.9362295012369</v>
       </c>
     </row>
     <row r="12">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>104.7766530496625</v>
+        <v>104.7766530496655</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>186.5636985298833</v>
+        <v>186.5636985359776</v>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>82.14741148868237</v>
+        <v>81.75217057661169</v>
       </c>
       <c r="Z12" s="2" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>31.73484549116121</v>
+        <v>33.83108824345432</v>
       </c>
       <c r="AE12" s="2" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>76.62969958157835</v>
+        <v>76.62969958158052</v>
       </c>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>136.4456656617661</v>
+        <v>136.4456656662232</v>
       </c>
       <c r="U13" s="2" t="n"/>
       <c r="V13" s="2" t="n"/>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>60.07952421231025</v>
+        <v>59.79045988860095</v>
       </c>
       <c r="Z13" s="2" t="n"/>
       <c r="AA13" s="2" t="n"/>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>23.20967129101595</v>
+        <v>24.74278432414694</v>
       </c>
       <c r="AE13" s="2" t="n"/>
       <c r="AF13" s="2" t="n"/>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1184.38</v>
+        <v>1184.380000000064</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1174.380000000006</v>
+        <v>1174.380000000069</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1174.380000000016</v>
+        <v>1174.380000080025</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1061.428000000013</v>
+        <v>1052.398000079406</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>112.9520000000119</v>
+        <v>121.9820000006183</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>104.179040000034</v>
+        <v>113.2090400008215</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>104.1790400001072</v>
+        <v>113.2090400008144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -2417.1005148963704</t>
+          <t>Objective function: -1972.5550679054875</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>606.9976837041048</v>
+        <v>606.7086193848548</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23.20967129079292</v>
+        <v>24.74278432402622</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>630.2073549948977</v>
+        <v>631.451403708881</v>
       </c>
     </row>
     <row r="18">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>228.6839773632019</v>
+        <v>227.4637137428275</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.577194960000691</v>
+        <v>7.103011860036001</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>235.2611723232026</v>
+        <v>234.5667256028635</v>
       </c>
     </row>
     <row r="19">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.1399536740821</v>
+        <v>12.1341723876971</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4641934258158583</v>
+        <v>0.4948556864805245</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12.60414709989795</v>
+        <v>12.62902807417762</v>
       </c>
     </row>
     <row r="21">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-12084</v>
+        <v>-11963.16000095664</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1060.800000000731</v>
+        <v>-737.1936000000956</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-13144.80000000073</v>
+        <v>-12700.35360095674</v>
       </c>
     </row>
     <row r="23">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>900.0882814080554</v>
+        <v>898.5731721820459</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23.67386471660877</v>
+        <v>25.23764001050675</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>923.7621461246642</v>
+        <v>923.8108121925527</v>
       </c>
     </row>
     <row r="25">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7.097817153828933</v>
+        <v>7.148772720725796</v>
       </c>
     </row>
     <row r="28">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.07152182586663175</v>
+        <v>0.0709481379711679</v>
       </c>
     </row>
     <row r="30">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>54.17596800000045</v>
+        <v>54.17596800179327</v>
       </c>
     </row>
     <row r="33">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>179.8639651200021</v>
+        <v>179.1737119298118</v>
       </c>
     </row>
     <row r="34">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.221239203200013</v>
+        <v>1.217045671258483</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -477,12 +477,12 @@
       </c>
       <c r="AE5" s="1" t="inlineStr">
         <is>
-          <t>Sell3(7, 3, 2)</t>
+          <t>Sell2(7, 3, 1)</t>
         </is>
       </c>
       <c r="AJ5" s="1" t="inlineStr">
         <is>
-          <t>Sell3(8, 3, 2)</t>
+          <t>Sell2(8, 3, 1)</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>530</v>
+        <v>530.0000000000107</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>530</v>
+        <v>530.0000000000429</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>530</v>
+        <v>524.6999999999764</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>0</v>
+        <v>5.300000000000392</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>0</v>
+        <v>5.300000000000276</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>0</v>
+        <v>5.300000000000128</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.482000000000004</v>
+        <v>7.481999999998962</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>7.482000000009369</v>
+        <v>7.481999999998949</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.482000000029211</v>
+        <v>7.48200000174087</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.489200000053314</v>
+        <v>4.489200001044522</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>2.992800000016636</v>
+        <v>2.992800001854527</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.05985600002500568</v>
+        <v>0.05985600003709055</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.05985600007702743</v>
+        <v>0.05985600003709055</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>40.80000000000374</v>
+        <v>40.8000000000047</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.80000000000603</v>
+        <v>40.8000000000068</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0</v>
+        <v>0.4080000000000155</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.8000000000068</v>
+        <v>40.39200000000712</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.80000000001151</v>
+        <v>40.39200000000996</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.80000000002076</v>
+        <v>40.39200000000899</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3.445056944132343</v>
+        <v>3.44505694413234</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>8.000000000000236</v>
+        <v>8</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.9171463333698454</v>
+        <v>0.917146333379688</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8.000000000000751</v>
+        <v>7.999999999792608</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4244100431925497</v>
+        <v>0.4244097562354878</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9048012216072802</v>
+        <v>0.9003926301097337</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>8.000000000001879</v>
+        <v>7.999999999792608</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1252658796189983</v>
+        <v>0.1333775862707037</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000016772</v>
+        <v>0.1600000000066656</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>62.29890630005801</v>
+        <v>69.728631300082</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.160000000007271</v>
+        <v>0.1600000000066656</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>62.29890630016615</v>
+        <v>69.72863130008031</v>
       </c>
     </row>
     <row r="12">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>72.36893320261046</v>
+        <v>72.36893320261042</v>
       </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>131.991523432883</v>
+        <v>131.9914341892367</v>
       </c>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>54.28807329643681</v>
+        <v>54.02355780658402</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>17.53722314665977</v>
+        <v>18.67286207789851</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>596.2820000000029</v>
+        <v>596.2820000000019</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>52.92791331792989</v>
+        <v>52.92791331792986</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>586.2820000000133</v>
+        <v>586.2820000008854</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>586.282000000036</v>
+        <v>586.2820000015831</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>96.53363123922827</v>
+        <v>96.53356596978507</v>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>534.4892000000533</v>
+        <v>529.597200001021</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>39.7042530610025</v>
+        <v>39.51079638976787</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>51.79280000002532</v>
+        <v>56.68480000165465</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>12.82606479696069</v>
+        <v>13.65662835860378</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>41.0198560000382</v>
+        <v>45.91185600005399</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>41.01985600010506</v>
+        <v>45.91185600005288</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 3620.806254119561</t>
+          <t>Objective function: 3811.784832535865</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>451.041181197361</v>
+        <v>450.8476592566784</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12.82606479674469</v>
+        <v>13.65662835848535</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>463.8672459941057</v>
+        <v>464.5042876151638</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.93531569811483</v>
+        <v>80.71461135705582</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.015894744001475</v>
+        <v>3.30075590409635</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>83.95121044211631</v>
+        <v>84.01536726115218</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.020823623947221</v>
+        <v>9.016953185133568</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2565212959348937</v>
+        <v>0.273132567169707</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.277344919882115</v>
+        <v>9.290085752303275</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-6360</v>
+        <v>-6296.399999999717</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-416.1600000002118</v>
+        <v>-289.2067200000644</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-6776.160000000212</v>
+        <v>-6585.606719999781</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>593.2639871860897</v>
+        <v>592.8458904655346</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13.08258609267958</v>
+        <v>13.92976092565506</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>606.3465732787693</v>
+        <v>606.7756513911895</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.933976119022388</v>
+        <v>2.930498363474324</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03770472198095978</v>
+        <v>0.0374027809810037</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30.62915520000132</v>
+        <v>30.62915520004772</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>52.83490844800297</v>
+        <v>52.89928716811168</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4871467941120236</v>
+        <v>0.4869248929927687</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>530.0000000000107</v>
+        <v>530</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>530.0000000000429</v>
+        <v>530</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>524.6999999999764</v>
+        <v>524.6999999999999</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>5.300000000000392</v>
+        <v>5.300000000007849</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>5.300000000000276</v>
+        <v>5.300000000007849</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>5.300000000000128</v>
+        <v>5.300000000007849</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.481999999998962</v>
+        <v>7.481999999998891</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>7.481999999998949</v>
+        <v>7.482000000040587</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.48200000174087</v>
+        <v>7.482000000040614</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.489200001044522</v>
+        <v>4.48920000002181</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>2.992800001854527</v>
+        <v>2.992800000016884</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.05985600003709055</v>
+        <v>0.05985599999411106</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.05985600003709055</v>
+        <v>0.05985599998366919</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>40.8000000000047</v>
+        <v>40.8000000000039</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.8000000000068</v>
+        <v>40.80000000002192</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.4080000000000155</v>
+        <v>0.4080000000002192</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.39200000000712</v>
+        <v>40.39200000002214</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.39200000000996</v>
+        <v>40.39200000002646</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.39200000000899</v>
+        <v>40.39200000003492</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.917146333379688</v>
+        <v>0.9171462674451748</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7.999999999792608</v>
+        <v>8</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4244097562354878</v>
+        <v>0.4244100431925582</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9003926301097337</v>
+        <v>0.9003926301088334</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>7.999999999792608</v>
+        <v>7.999999999984079</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1333775862707037</v>
+        <v>0.1333775862680113</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000066656</v>
+        <v>0.1600000000224948</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>69.728631300082</v>
+        <v>69.72863130007734</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1600000000066656</v>
+        <v>0.1600000000224865</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>69.72863130008031</v>
+        <v>69.72863130009195</v>
       </c>
     </row>
     <row r="12">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>72.36893320261042</v>
+        <v>72.36893320261039</v>
       </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>131.9914341892367</v>
+        <v>131.9915234328856</v>
       </c>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>54.02355780658402</v>
+        <v>54.02355780653001</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>18.67286207789851</v>
+        <v>18.67286207752159</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>596.2820000000019</v>
+        <v>596.2820000000017</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>52.92791331792986</v>
+        <v>52.92791331792984</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>586.2820000008854</v>
+        <v>586.2820000000445</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>586.2820000015831</v>
+        <v>586.2820000000626</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>96.53356596978507</v>
+        <v>96.53363123923019</v>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>529.597200001021</v>
+        <v>529.597200000022</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>39.51079638976787</v>
+        <v>39.51079638972836</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>56.68480000165465</v>
+        <v>56.68480000003095</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>13.65662835860378</v>
+        <v>13.65662835832811</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>45.91185600005399</v>
+        <v>45.91185600005092</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>45.91185600005288</v>
+        <v>45.91185600006295</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 3811.784832535865</t>
+          <t>Objective function: 3811.7848991098413</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>450.8476592566784</v>
+        <v>450.847724526084</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.65662835848535</v>
+        <v>13.65662835820968</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>464.5042876151638</v>
+        <v>464.5043528842937</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.71461135705582</v>
+        <v>80.71461135699371</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.30075590409635</v>
+        <v>3.300755904001802</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>84.01536726115218</v>
+        <v>84.0153672609955</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.016953185133568</v>
+        <v>9.016954490521679</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.273132567169707</v>
+        <v>0.2731325671641937</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.290085752303275</v>
+        <v>9.290087057685872</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-6296.399999999717</v>
+        <v>-6296.399999999999</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-289.2067200000644</v>
+        <v>-289.20672000025</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-6585.606719999781</v>
+        <v>-6585.606720000249</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>592.8458904655346</v>
+        <v>592.8459570402661</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13.92976092565506</v>
+        <v>13.92976092537388</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>606.7756513911895</v>
+        <v>606.7757179656398</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.930498363474324</v>
+        <v>2.930498363470213</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0374027809810037</v>
+        <v>0.0374027809810081</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30.62915520004772</v>
+        <v>30.62915520000131</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>52.89928716811168</v>
+        <v>52.89928716800218</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4869248929927687</v>
+        <v>0.4869248929920152</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 2)</t>
+          <t>FAKE(3, 3, 3)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1007</v>
+        <v>1007.000000000011</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1007.000000080526</v>
+        <v>1007.000000000089</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>996.9300000797201</v>
+        <v>996.9300000004673</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>10.07000000080526</v>
+        <v>10.07000000000091</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>140</v>
+        <v>21.8</v>
       </c>
       <c r="AE7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>10.07000000080526</v>
+        <v>10.07000000000172</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>10.07000000080526</v>
+        <v>10.07000000001084</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.380000000069054</v>
+        <v>2.379999999995363</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.380000000069054</v>
+        <v>2.379999999995253</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2.379999999477303</v>
+        <v>2.380000000001587</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.427999999686382</v>
+        <v>1.428000000011291</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.9519999997909214</v>
+        <v>0.9520000000014059</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>1288</v>
+        <v>7492</v>
       </c>
       <c r="AE8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01903999999581843</v>
+        <v>0.01904000000628105</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01903999999581843</v>
+        <v>0.01904000004110262</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>103.9999999999952</v>
+        <v>104</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>104</v>
+        <v>104.000000000003</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>104.0000000000216</v>
+        <v>104.0000000000097</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>1.039999999999964</v>
+        <v>1.040000000004316</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>102.9600000000221</v>
+        <v>102.9600000000108</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="AE9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>102.9600000000204</v>
+        <v>102.9600000000234</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>102.9600000000133</v>
+        <v>102.9600000000986</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>394.1</v>
+        <v>541.7</v>
       </c>
       <c r="AE10" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>4.98779683764462</v>
+        <v>4.987796837644468</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>8</v>
+        <v>8.000000000000023</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.800541665729323</v>
+        <v>1.800541665729234</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8</v>
+        <v>8.000000000000789</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.5998832750352978</v>
+        <v>0.5998832750157228</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.362536176276862</v>
+        <v>1.362536176197778</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>8</v>
+        <v>8.000000000003073</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.241650630310388</v>
+        <v>0.1186907841071997</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.16</v>
+        <v>0.1600000000044802</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>171.9362295012477</v>
+        <v>171.9362295000688</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.16</v>
+        <v>0.160000000025968</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>171.9362295012369</v>
+        <v>171.9362295002821</v>
       </c>
     </row>
     <row r="12">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>104.7766530496655</v>
+        <v>104.7766530496623</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>186.5636985359776</v>
+        <v>186.5636985298898</v>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="V12" s="2" t="n">
-        <v>53</v>
+        <v>52.99999999820042</v>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>81.75217057661169</v>
+        <v>81.75217057186669</v>
       </c>
       <c r="Z12" s="2" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>33.83108824345432</v>
+        <v>2.587459093536953</v>
       </c>
       <c r="AE12" s="2" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>76.62969958158052</v>
+        <v>76.62969958157818</v>
       </c>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>136.4456656662232</v>
+        <v>136.4456656617708</v>
       </c>
       <c r="U13" s="2" t="n"/>
       <c r="V13" s="2" t="n"/>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>59.79045988860095</v>
+        <v>59.79045988513062</v>
       </c>
       <c r="Z13" s="2" t="n"/>
       <c r="AA13" s="2" t="n"/>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>24.74278432414694</v>
+        <v>1.892370172612595</v>
       </c>
       <c r="AE13" s="2" t="n"/>
       <c r="AF13" s="2" t="n"/>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1184.380000000064</v>
+        <v>1184.379999999995</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1174.380000000069</v>
+        <v>1174.380000000009</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1174.380000080025</v>
+        <v>1174.380000000101</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1052.398000079406</v>
+        <v>1052.397999998683</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>121.9820000006183</v>
+        <v>121.9820000000283</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>113.2090400008215</v>
+        <v>113.2090400000423</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>113.2090400008144</v>
+        <v>113.2090400001825</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -1972.5550679054875</t>
+          <t>Objective function: -2048.2096759927012</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>606.7086193848548</v>
+        <v>606.7086193769297</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>24.74278432402622</v>
+        <v>1.892370172515816</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>631.451403708881</v>
+        <v>608.6009895494456</v>
       </c>
     </row>
     <row r="18">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>227.4637137428275</v>
+        <v>175.1820418270367</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7.103011860036001</v>
+        <v>5.750475444001334</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>234.5667256028635</v>
+        <v>180.932517271038</v>
       </c>
     </row>
     <row r="19">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.1341723876971</v>
+        <v>12.13417238753859</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.4948556864805245</v>
+        <v>0.03784740345031631</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12.62902807417762</v>
+        <v>12.17201979098891</v>
       </c>
     </row>
     <row r="21">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-11963.16000095664</v>
+        <v>-11963.16000000561</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-737.1936000000956</v>
+        <v>-737.1936000007058</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-12700.35360095674</v>
+        <v>-12700.35360000631</v>
       </c>
     </row>
     <row r="23">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>898.5731721820459</v>
+        <v>846.2915002581717</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>25.23764001050675</v>
+        <v>1.930217575966132</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>923.8108121925527</v>
+        <v>848.2217178341378</v>
       </c>
     </row>
     <row r="25">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7.148772720725796</v>
+        <v>7.083192053507286</v>
       </c>
     </row>
     <row r="28">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0709481379711679</v>
+        <v>0.07101412596695024</v>
       </c>
     </row>
     <row r="30">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>54.17596800179327</v>
+        <v>0.5417596799998664</v>
       </c>
     </row>
     <row r="33">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>179.1737119298118</v>
+        <v>179.1737119198391</v>
       </c>
     </row>
     <row r="34">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.217045671258483</v>
+        <v>1.217045671199041</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 3)</t>
+          <t>FAKE(3, 3, 2)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>530</v>
+        <v>530.0000000000073</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>530</v>
+        <v>530.0000000000429</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>524.6999999999999</v>
+        <v>524.7000000001354</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>5.300000000007849</v>
+        <v>5.300000000000438</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>140</v>
+        <v>21.8</v>
       </c>
       <c r="AE7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>5.300000000007849</v>
+        <v>5.300000000002981</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>5.300000000007849</v>
+        <v>5.300000000002992</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.481999999998891</v>
+        <v>7.481999999998722</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>7.482000000040587</v>
+        <v>7.481999999998557</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.482000000040614</v>
+        <v>7.48200000001317</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.48920000002181</v>
+        <v>4.489200000001754</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>2.992800000016884</v>
+        <v>2.992800000002196</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>1288</v>
+        <v>7492</v>
       </c>
       <c r="AE8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.05985599999411106</v>
+        <v>0.05985599999180638</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.05985599998366919</v>
+        <v>0.05985599997863456</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.80000000002192</v>
+        <v>40.80000000000624</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.4080000000002192</v>
+        <v>0.4080000000020672</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.39200000002214</v>
+        <v>40.39200000000662</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>0.78</v>
+        <v>0.54</v>
       </c>
       <c r="AE9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.39200000002646</v>
+        <v>40.39200000001929</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.39200000003492</v>
+        <v>40.39200000001958</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>394.1</v>
+        <v>541.7</v>
       </c>
       <c r="AE10" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>8</v>
+        <v>8.000000000000005</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.9171462674451748</v>
+        <v>0.9171463333783756</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8</v>
+        <v>8.00000000000054</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4244100431925582</v>
+        <v>0.4244100022973809</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9003926301088334</v>
+        <v>0.9003926301089391</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>7.999999999984079</v>
+        <v>8.000000000000989</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1333775862680113</v>
+        <v>0.07903979093695471</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000224948</v>
+        <v>0.1600000000012389</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>69.72863130007734</v>
+        <v>69.72863130002325</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1600000000224865</v>
+        <v>0.1600000000054778</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>69.72863130009195</v>
+        <v>69.72863130019232</v>
       </c>
     </row>
     <row r="12">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>131.9915234328856</v>
+        <v>131.9915107144855</v>
       </c>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>54.02355780653001</v>
+        <v>54.02355780653635</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>18.67286207752159</v>
+        <v>1.723067442425613</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>596.2820000000017</v>
+        <v>596.2820000000016</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>586.2820000000445</v>
+        <v>586.2820000000098</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>586.2820000000626</v>
+        <v>586.2820000000628</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>96.53363123923019</v>
+        <v>96.53362193747114</v>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>529.597200000022</v>
+        <v>529.5972000001393</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>39.51079638972836</v>
+        <v>39.510796389733</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>56.68480000003095</v>
+        <v>56.68480000001706</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>13.65662835832811</v>
+        <v>1.260186660183631</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>45.91185600005092</v>
+        <v>45.91185600001531</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>45.91185600006295</v>
+        <v>45.9118560001238</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 3811.7848991098413</t>
+          <t>Objective function: 3799.1405190883956</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>450.847724526084</v>
+        <v>450.8477152243295</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13.65662835820968</v>
+        <v>1.260186660042957</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>464.5043528842937</v>
+        <v>452.1079018843725</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.71461135699371</v>
+        <v>80.714611356999</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3.300755904001802</v>
+        <v>2.057395222528619</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>84.0153672609955</v>
+        <v>82.77200657952761</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.016954490521679</v>
+        <v>9.016954304486591</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2731325671641937</v>
+        <v>0.02520373320085915</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.290087057685872</v>
+        <v>9.04215803768745</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-6296.399999999999</v>
+        <v>-6296.400000001625</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-289.20672000025</v>
+        <v>-289.2067200001402</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-6585.606720000249</v>
+        <v>-6585.606720001765</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>592.8459570402661</v>
+        <v>592.8459475524819</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>13.92976092537388</v>
+        <v>1.285390393243817</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>606.7757179656398</v>
+        <v>594.1313379457258</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.930498363470213</v>
+        <v>2.930498363455675</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0374027809810081</v>
+        <v>0.03740278098085</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30.62915520000131</v>
+        <v>30.62915520000248</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>52.89928716800218</v>
+        <v>51.6533552640051</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4869248929920152</v>
+        <v>0.4894961155200493</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>10.07000000001084</v>
+        <v>10.07000000001062</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01904000000628105</v>
+        <v>0.01904000000663499</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01904000004110262</v>
+        <v>0.01904000004042399</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>102.9600000000986</v>
+        <v>102.9600000000951</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000044802</v>
+        <v>0.1600000000043665</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>171.9362295000688</v>
+        <v>171.9362295000678</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.160000000025968</v>
+        <v>0.1600000000253818</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>171.9362295002821</v>
+        <v>171.9362295002642</v>
       </c>
     </row>
     <row r="12">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>113.2090400000423</v>
+        <v>113.2090400000419</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>113.2090400001825</v>
+        <v>113.209040000173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -2048.2096759927012</t>
+          <t>Objective function: -2040.5094879286792</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175.1820418270367</v>
+        <v>182.882229891035</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.750475444001334</v>
+        <v>5.931984660001376</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>180.932517271038</v>
+        <v>188.8142145510364</v>
       </c>
     </row>
     <row r="19">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-737.1936000007058</v>
+        <v>-737.1936000006806</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-12700.35360000631</v>
+        <v>-12700.35360000629</v>
       </c>
     </row>
     <row r="23">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>846.2915002581717</v>
+        <v>853.9916883221699</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>848.2217178341378</v>
+        <v>855.9219058981361</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5417596799998664</v>
+        <v>8.423456959998271</v>
       </c>
     </row>
     <row r="33">

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 2)</t>
+          <t>FAKE(3, 3, 3)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>530.0000000000429</v>
+        <v>530</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>524.7000000001354</v>
+        <v>524.6999999999998</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>5.300000000000438</v>
+        <v>5.300000000012172</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>5.300000000002981</v>
+        <v>5.300000000004476</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>5.300000000002992</v>
+        <v>5.300000000005803</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.481999999998722</v>
+        <v>7.481999999998891</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>7.481999999998557</v>
+        <v>7.481999999998838</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.48200000001317</v>
+        <v>7.482000000012291</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.489200000001754</v>
+        <v>4.48920000000544</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>2.992800000002196</v>
+        <v>2.992800000001716</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.05985599999180638</v>
+        <v>0.0598559999976944</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.05985599997863456</v>
+        <v>0.05985600001766569</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.80000000000624</v>
+        <v>40.8000000000188</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.4080000000020672</v>
+        <v>0.4080000000000155</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.39200000000662</v>
+        <v>40.39200000001906</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.39200000001929</v>
+        <v>40.39200000002381</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.39200000001958</v>
+        <v>40.39200000003284</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>8.000000000000005</v>
+        <v>8.00000000000002</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.9171463333783756</v>
+        <v>0.9171462298816154</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8.00000000000054</v>
+        <v>8.000000000000451</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4244100022973809</v>
+        <v>0.4244100431925483</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9003926301089391</v>
+        <v>0.9003926301088183</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>8.000000000000989</v>
+        <v>8.000000000001101</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.07903979093695471</v>
+        <v>0.07903979094099574</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000012389</v>
+        <v>0.1600000000184087</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>69.72863130002325</v>
+        <v>69.72863130006742</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1600000000054778</v>
+        <v>0.1600000000184087</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>69.72863130019232</v>
+        <v>69.72863130006382</v>
       </c>
     </row>
     <row r="12">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>131.9915107144855</v>
+        <v>131.9915234328825</v>
       </c>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>54.02355780653635</v>
+        <v>54.0235578065291</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>1.723067442425613</v>
+        <v>1.723067442513707</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>596.2820000000016</v>
+        <v>596.2820000000017</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>586.2820000000098</v>
+        <v>586.28200000001</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>586.2820000000628</v>
+        <v>586.2820000000315</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>96.53362193747114</v>
+        <v>96.53363123922793</v>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>529.5972000001393</v>
+        <v>529.5972000000053</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>39.510796389733</v>
+        <v>39.5107963897277</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>56.68480000001706</v>
+        <v>56.68480000003405</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>1.260186660183631</v>
+        <v>1.26018666024806</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>45.91185600001531</v>
+        <v>45.91185600004439</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>45.9118560001238</v>
+        <v>45.91185600004485</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 3799.1405190883956</t>
+          <t>Objective function: 3773.762571489388</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>450.8477152243295</v>
+        <v>450.847724526081</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.260186660042957</v>
+        <v>1.260186660107386</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>452.1079018843725</v>
+        <v>452.1079111861885</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.714611356999</v>
+        <v>55.34110278099229</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2.057395222528619</v>
+        <v>1.513221142528909</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>82.77200657952761</v>
+        <v>56.8543239235212</v>
       </c>
     </row>
     <row r="19">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.016954304486591</v>
+        <v>9.01695449052162</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.02520373320085915</v>
+        <v>0.02520373320214773</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.04215803768745</v>
+        <v>9.042158223723769</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-6296.400000001625</v>
+        <v>-6296.399999999998</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-289.2067200001402</v>
+        <v>-289.2067200002352</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-6585.606720001765</v>
+        <v>-6585.606720000234</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>592.8459475524819</v>
+        <v>567.4724484642616</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.285390393243817</v>
+        <v>1.285390393309534</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>594.1313379457258</v>
+        <v>568.7578388575711</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.930498363455675</v>
+        <v>2.926023963470264</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03740278098085</v>
+        <v>0.03742866858100785</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>30.62915520000248</v>
+        <v>4.711472544000168</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>51.6533552640051</v>
+        <v>51.65335526400101</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4894961155200493</v>
+        <v>0.4894961155200124</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>10.07000000001062</v>
+        <v>10.07000000001079</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01904000000663499</v>
+        <v>0.01904000000628105</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01904000004042399</v>
+        <v>0.01904000004111505</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>102.9600000000951</v>
+        <v>102.9600000000995</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000043665</v>
+        <v>0.1600000000044802</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>171.9362295000678</v>
+        <v>171.9362295000688</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1600000000253818</v>
+        <v>0.160000000025968</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>171.9362295002642</v>
+        <v>171.9362295002831</v>
       </c>
     </row>
     <row r="12">
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>113.2090400000419</v>
+        <v>113.2090400000423</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>113.209040000173</v>
+        <v>113.2090400001832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -2040.5094879286792</t>
+          <t>Objective function: -2040.5094879287108</t>
         </is>
       </c>
     </row>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-737.1936000006806</v>
+        <v>-737.1936000007123</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-12700.35360000629</v>
+        <v>-12700.35360000632</v>
       </c>
     </row>
     <row r="23">

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 3)</t>
+          <t>FAKE(3, 3, 2)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>530</v>
+        <v>689</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>530</v>
+        <v>689</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>530.0000000000073</v>
+        <v>688.9999999999222</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>530</v>
+        <v>689.0000000001984</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>524.6999999999998</v>
+        <v>682.1100000001964</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>5.300000000012172</v>
+        <v>6.89000000011127</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>5.300000000004476</v>
+        <v>6.889999999972867</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>5.300000000005803</v>
+        <v>6.890000000063695</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>374.1</v>
+        <v>486</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.481999999998891</v>
+        <v>9.719999999993249</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>7.481999999998838</v>
+        <v>9.719999999997043</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>7.482000000012291</v>
+        <v>9.719999999998217</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.48920000000544</v>
+        <v>5.831999999996739</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>2.992800000001716</v>
+        <v>3.887999999994733</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.0598559999976944</v>
+        <v>0.0777599999969989</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.05985600001766569</v>
+        <v>0.07775999999455507</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>40.8</v>
+        <v>53.04</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>40.80000000000291</v>
+        <v>53.0399999999936</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>40.8000000000039</v>
+        <v>53.03999999998781</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>40.8000000000188</v>
+        <v>53.04000000004951</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.4080000000000155</v>
+        <v>0.5304000000004951</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>40.39200000001906</v>
+        <v>52.50960000004901</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>40.39200000002381</v>
+        <v>52.50960000004901</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>40.39200000003284</v>
+        <v>52.50960000004901</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>11</v>
+        <v>14.3</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3699618067621486</v>
+        <v>0.4382847491506254</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>3.44505694413234</v>
+        <v>3.942343756926116</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>8.00000000000002</v>
+        <v>7.999999999999097</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.9171462298816154</v>
+        <v>1.178941465355791</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8.000000000000451</v>
+        <v>7.999999999898154</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.4244100431925483</v>
+        <v>0.4800798600071331</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9003926301088183</v>
+        <v>1.043568397899106</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>8.000000000001101</v>
+        <v>7.999999999898154</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.07903979094099574</v>
+        <v>0.08790625455611488</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000184087</v>
+        <v>0.1599999999979631</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>69.72863130006742</v>
+        <v>90.57424050002558</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1600000000184087</v>
+        <v>0.1599999999979631</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>69.72863130006382</v>
+        <v>90.57424050015982</v>
       </c>
     </row>
     <row r="12">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>8.06516738741484</v>
+        <v>9.554607531483635</v>
       </c>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>72.36893320261039</v>
+        <v>82.81523836424414</v>
       </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>131.9915234328825</v>
+        <v>149.3048364622184</v>
       </c>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>54.0235578065291</v>
+        <v>62.61410387394637</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>1.723067442513707</v>
+        <v>1.916356349323304</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>965.9</v>
+        <v>1255.34</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>5.898559803010745</v>
+        <v>6.987880252392117</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>596.2820000000017</v>
+        <v>772.7599999999868</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>52.92791331792984</v>
+        <v>60.56794764784933</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>586.28200000001</v>
+        <v>759.7599999999062</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>586.2820000000315</v>
+        <v>759.7600000001443</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>96.53363123922793</v>
+        <v>109.1959366057774</v>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>529.5972000000053</v>
+        <v>688.4724000001936</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>39.5107963897277</v>
+        <v>45.79359838070059</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>56.68480000003405</v>
+        <v>71.28760000005316</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>1.26018666024806</v>
+        <v>1.401550890066039</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>45.91185600004439</v>
+        <v>59.63736000001684</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>45.91185600004485</v>
+        <v>59.63736000010523</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 3773.762571489388</t>
+          <t>Objective function: 4795.943553715987</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>450.847724526081</v>
+        <v>478.5221866629057</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.260186660107386</v>
+        <v>1.401550889921261</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>452.1079111861885</v>
+        <v>479.923737552827</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>55.34110278099229</v>
+        <v>71.92244707847135</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.513221142528909</v>
+        <v>1.903048145537419</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>56.8543239235212</v>
+        <v>73.82549522400878</v>
       </c>
     </row>
     <row r="19">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.26666666666667</v>
+        <v>67.94666666666667</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>52.26666666666667</v>
+        <v>67.94666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.01695449052162</v>
+        <v>9.570443733258115</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.02520373320214773</v>
+        <v>0.02803101779842522</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.042158223723769</v>
+        <v>9.598474751056539</v>
       </c>
     </row>
     <row r="21">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-6296.399999999998</v>
+        <v>-8185.320000002356</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-289.2067200002352</v>
+        <v>-375.9687360003509</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-6585.606720000234</v>
+        <v>-8561.288736002707</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>567.4724484642616</v>
+        <v>627.9617441413019</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.285390393309534</v>
+        <v>1.429581907719687</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>568.7578388575711</v>
+        <v>629.3913260490216</v>
       </c>
     </row>
     <row r="25">
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9787.647999999999</v>
+        <v>12723.9424</v>
       </c>
     </row>
     <row r="27">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.926023963470264</v>
+        <v>3.849966901635959</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.03742866858100785</v>
+        <v>0.04859676803569111</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4.711472544000168</v>
+        <v>6.111409920000866</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>51.65335526400101</v>
+        <v>67.07860336800782</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.4894961155200124</v>
+        <v>0.6354819360000777</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -477,12 +477,12 @@
       </c>
       <c r="AE5" s="1" t="inlineStr">
         <is>
-          <t>Sell2(7, 3, 1)</t>
+          <t>Centrifugation(7, 3, 2)</t>
         </is>
       </c>
       <c r="AJ5" s="1" t="inlineStr">
         <is>
-          <t>Sell2(8, 3, 1)</t>
+          <t>Sell3(8, 3, 2)</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1007.000000000011</v>
+        <v>1007.000000000027</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1007.000000000089</v>
+        <v>1007.000000000095</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>996.9300000004673</v>
+        <v>996.9300000003149</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>10.07000000000091</v>
+        <v>10.07000000000099</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>10.07000000000172</v>
+        <v>10.07000000000179</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="AH7" s="2" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="AJ7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>10.07000000001079</v>
+        <v>0.1007000000036912</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.379999999995363</v>
+        <v>2.380000000000001</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.379999999995253</v>
+        <v>2.380000000002839</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2.380000000001587</v>
+        <v>2.3800000000082</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1.428000000011291</v>
+        <v>1.428000000015844</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.9520000000014059</v>
+        <v>0.952000000004861</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01904000000628105</v>
+        <v>0.01904000000635945</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="AH8" s="2" t="n">
-        <v>1</v>
+        <v>4917</v>
       </c>
       <c r="AJ8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.01904000004111505</v>
+        <v>0.007616000016885479</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>104.000000000003</v>
+        <v>104.0000000000026</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>104.0000000000097</v>
+        <v>104.0000000000084</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>1.040000000004316</v>
+        <v>1.040000000004716</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>102.9600000000108</v>
+        <v>102.9600000000099</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>102.9600000000234</v>
+        <v>102.9600000000207</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="AH9" s="2" t="n">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="AJ9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>102.9600000000995</v>
+        <v>101.9304000000475</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="AH10" s="2" t="n">
-        <v>400</v>
+        <v>499.6</v>
       </c>
       <c r="AJ10" s="2" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="I11" s="2" t="n">
-        <v>4.987796837644468</v>
+        <v>4.987796837644479</v>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="L11" s="2" t="n">
-        <v>8.000000000000023</v>
+        <v>8.000000000000236</v>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.800541665729234</v>
+        <v>1.800541665729269</v>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>8.000000000000789</v>
+        <v>8.000000000000808</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.5998832750157228</v>
+        <v>0.5998832750157257</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.362536176197778</v>
+        <v>1.36253617621918</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>8.000000000003073</v>
+        <v>8.000000000001656</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.1186907841071997</v>
+        <v>0.1186907841052618</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1600000000044802</v>
+        <v>0.16000000000201</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>171.9362295000688</v>
+        <v>0.1862437621527311</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.160000000025968</v>
+        <v>0.1600000000120338</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>171.9362295002831</v>
+        <v>155.2142999251329</v>
       </c>
     </row>
     <row r="12">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>104.7766530496623</v>
+        <v>104.7766530496625</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>186.5636985298898</v>
+        <v>186.5636985298907</v>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="V12" s="2" t="n">
-        <v>52.99999999820042</v>
+        <v>53</v>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>81.75217057186669</v>
+        <v>81.75217057315078</v>
       </c>
       <c r="Z12" s="2" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>2.587459093536953</v>
+        <v>2.587459093494707</v>
       </c>
       <c r="AE12" s="2" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="AH12" s="2" t="n">
-        <v>0</v>
+        <v>57.92181002949938</v>
       </c>
       <c r="AJ12" s="2" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>76.62969958157818</v>
+        <v>76.62969958157835</v>
       </c>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>136.4456656617708</v>
+        <v>136.4456656617714</v>
       </c>
       <c r="U13" s="2" t="n"/>
       <c r="V13" s="2" t="n"/>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>59.79045988513062</v>
+        <v>59.79045988606977</v>
       </c>
       <c r="Z13" s="2" t="n"/>
       <c r="AA13" s="2" t="n"/>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>1.892370172612595</v>
+        <v>1.892370172581698</v>
       </c>
       <c r="AE13" s="2" t="n"/>
       <c r="AF13" s="2" t="n"/>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="AH13" s="2" t="n">
-        <v>0</v>
+        <v>42.36183131062599</v>
       </c>
       <c r="AJ13" s="2" t="n"/>
       <c r="AK13" s="2" t="n"/>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1184.379999999995</v>
+        <v>1184.38</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1174.380000000009</v>
+        <v>1174.380000000033</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1174.380000000101</v>
+        <v>1174.380000000113</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1052.397999998683</v>
+        <v>1052.398000000335</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>121.9820000000283</v>
+        <v>121.9820000000272</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>113.2090400000423</v>
+        <v>113.2090400000309</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>113.2090400001832</v>
+        <v>102.1987160000849</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -2040.5094879287108</t>
+          <t>Objective function: -2299.7968999884633</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>606.7086193769297</v>
+        <v>606.7086193778697</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.892370172515816</v>
+        <v>44.25420148310861</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>608.6009895494456</v>
+        <v>650.9628208609782</v>
       </c>
     </row>
     <row r="18">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>182.882229891035</v>
+        <v>182.8822298912424</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5.931984660001376</v>
+        <v>6.306933000481426</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>188.8142145510364</v>
+        <v>189.1891628917239</v>
       </c>
     </row>
     <row r="19">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.13417238753859</v>
+        <v>12.13417238755739</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.03784740345031631</v>
+        <v>0.8850840296621723</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12.17201979098891</v>
+        <v>13.01925641721957</v>
       </c>
     </row>
     <row r="21">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-11963.16000000561</v>
+        <v>-11963.16000000378</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-737.1936000007123</v>
+        <v>-1039.690080000485</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-12700.35360000632</v>
+        <v>-13002.85008000426</v>
       </c>
     </row>
     <row r="23">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>853.9916883221699</v>
+        <v>853.9916883233362</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.930217575966132</v>
+        <v>45.13928551277079</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>855.9219058981361</v>
+        <v>899.1309738361069</v>
       </c>
     </row>
     <row r="25">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7.083192053507286</v>
+        <v>7.083192053724497</v>
       </c>
     </row>
     <row r="28">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.07101412596695024</v>
+        <v>0.07101412596676716</v>
       </c>
     </row>
     <row r="30">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.423456959998271</v>
+        <v>8.798405300481056</v>
       </c>
     </row>
     <row r="33">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>179.1737119198391</v>
+        <v>179.1737119200426</v>
       </c>
     </row>
     <row r="34">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.217045671199041</v>
+        <v>1.217045671200254</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 2)</t>
+          <t>FAKE(3, 3, 1)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
@@ -477,12 +477,12 @@
       </c>
       <c r="AE5" s="1" t="inlineStr">
         <is>
-          <t>Sell2(7, 3, 1)</t>
+          <t>Centrifugation(7, 3, 2)</t>
         </is>
       </c>
       <c r="AJ5" s="1" t="inlineStr">
         <is>
-          <t>Sell2(8, 3, 1)</t>
+          <t>Sell3(8, 3, 2)</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>689</v>
+        <v>530</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="G7" s="2" t="n">
-        <v>689</v>
+        <v>530.00000000001</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="L7" s="2" t="n">
-        <v>688.9999999999222</v>
+        <v>530.0000000034081</v>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>689.0000000001984</v>
+        <v>530.0000000000036</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="V7" s="2" t="n">
-        <v>682.1100000001964</v>
+        <v>524.7000000023221</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>6.89000000011127</v>
+        <v>5.300000000000041</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>6.889999999972867</v>
+        <v>5.300000000000041</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="AH7" s="2" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="AJ7" s="2" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="AK7" s="2" t="n">
-        <v>6.890000000063695</v>
+        <v>0.05300000000000041</v>
       </c>
       <c r="AL7" s="2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>486</v>
+        <v>374</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>9.719999999993249</v>
+        <v>7.480000000003486</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="L8" s="2" t="n">
-        <v>9.719999999997043</v>
+        <v>7.480000000051704</v>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>9.719999999998217</v>
+        <v>7.480000000003656</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="V8" s="2" t="n">
-        <v>5.831999999996739</v>
+        <v>4.488000000003204</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>3.887999999994733</v>
+        <v>2.992000000001462</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.0777599999969989</v>
+        <v>0.05984000000002925</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="AH8" s="2" t="n">
-        <v>1</v>
+        <v>4917</v>
       </c>
       <c r="AJ8" s="2" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="AK8" s="2" t="n">
-        <v>0.07775999999455507</v>
+        <v>0.0239360000000117</v>
       </c>
       <c r="AL8" s="2" t="inlineStr">
         <is>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>53.04</v>
+        <v>40.8</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="G9" s="2" t="n">
-        <v>53.0399999999936</v>
+        <v>40.80000000000557</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         </is>
       </c>
       <c r="L9" s="2" t="n">
-        <v>53.03999999998781</v>
+        <v>40.80000000026521</v>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>53.04000000004951</v>
+        <v>40.80000000000314</v>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.5304000000004951</v>
+        <v>0.4080000000000537</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>52.50960000004901</v>
+        <v>40.3920000000031</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>52.50960000004901</v>
+        <v>40.3920000000031</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="AH9" s="2" t="n">
-        <v>1</v>
+        <v>0.49</v>
       </c>
       <c r="AJ9" s="2" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="AK9" s="2" t="n">
-        <v>52.50960000004901</v>
+        <v>39.98808000000307</v>
       </c>
       <c r="AL9" s="2" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="G10" s="2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="AH10" s="2" t="n">
-        <v>400</v>
+        <v>499.6</v>
       </c>
       <c r="AJ10" s="2" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>14.3</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4382847491506254</v>
+        <v>0.3699382015474839</v>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
@@ -1191,47 +1191,47 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
+        <v>7.999999999995533</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Cost corr</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>3.445051308451863</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>8.000000000051388</v>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>Cost corr</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>1.008800810671974</v>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Cost corr</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n">
-        <v>3.942343756926116</v>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>7.999999999999097</v>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>Cost corr</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>1.178941465355791</v>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="Q11" s="2" t="n">
-        <v>7.999999999898154</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Cost corr</t>
-        </is>
-      </c>
       <c r="S11" s="2" t="n">
-        <v>0.4800798600071331</v>
+        <v>0.4244094013841651</v>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         </is>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.043568397899106</v>
+        <v>0.9003915486902636</v>
       </c>
       <c r="Z11" s="2" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>7.999999999898154</v>
+        <v>8.000000001092085</v>
       </c>
       <c r="AB11" s="2" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>0.08790625455611488</v>
+        <v>0.07903930514657281</v>
       </c>
       <c r="AE11" s="2" t="inlineStr">
         <is>
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="AF11" s="2" t="n">
-        <v>0.1599999999979631</v>
+        <v>0.1600000000218417</v>
       </c>
       <c r="AG11" s="2" t="inlineStr">
         <is>
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>90.57424050002558</v>
+        <v>0.1246339933610862</v>
       </c>
       <c r="AJ11" s="2" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.1599999999979631</v>
+        <v>0.1600000000218417</v>
       </c>
       <c r="AL11" s="2" t="inlineStr">
         <is>
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="AM11" s="2" t="n">
-        <v>90.57424050015982</v>
+        <v>61.09174305003786</v>
       </c>
     </row>
     <row r="12">
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>9.554607531483635</v>
+        <v>8.064652793735149</v>
       </c>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>82.81523836424414</v>
+        <v>72.3688148161249</v>
       </c>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>149.3048364622184</v>
+        <v>131.9913238304754</v>
       </c>
       <c r="U12" s="2" t="n"/>
       <c r="V12" s="2" t="n"/>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>62.61410387394637</v>
+        <v>54.02349292141582</v>
       </c>
       <c r="Z12" s="2" t="n"/>
       <c r="AA12" s="2" t="n"/>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>1.916356349323304</v>
+        <v>1.723056852195287</v>
       </c>
       <c r="AE12" s="2" t="n"/>
       <c r="AF12" s="2" t="n"/>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="AH12" s="2" t="n">
-        <v>0</v>
+        <v>38.76117193529781</v>
       </c>
       <c r="AJ12" s="2" t="n"/>
       <c r="AK12" s="2" t="n"/>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1255.34</v>
+        <v>965.8</v>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>6.987880252392117</v>
+        <v>5.898183448565995</v>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G13" s="2" t="n">
-        <v>772.7599999999868</v>
+        <v>596.2800000000146</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
@@ -1411,7 +1411,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>60.56794764784933</v>
+        <v>52.92782673451116</v>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="L13" s="2" t="n">
-        <v>759.7599999999062</v>
+        <v>586.2800000037764</v>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>759.7600000001443</v>
+        <v>586.2800000000104</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>109.1959366057774</v>
+        <v>96.53348525754164</v>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="V13" s="2" t="n">
-        <v>688.4724000001936</v>
+        <v>529.5960000023254</v>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
@@ -1459,7 +1459,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>45.79359838070059</v>
+        <v>39.51074893519854</v>
       </c>
       <c r="Z13" s="2" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>71.28760000005316</v>
+        <v>56.68400000109668</v>
       </c>
       <c r="AB13" s="2" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>1.401550890066039</v>
+        <v>1.260178914887855</v>
       </c>
       <c r="AE13" s="2" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>59.63736000001684</v>
+        <v>45.91184000002501</v>
       </c>
       <c r="AG13" s="2" t="inlineStr">
         <is>
@@ -1491,7 +1491,7 @@
         </is>
       </c>
       <c r="AH13" s="2" t="n">
-        <v>0</v>
+        <v>28.34846193668662</v>
       </c>
       <c r="AJ13" s="2" t="inlineStr">
         <is>
@@ -1499,7 +1499,7 @@
         </is>
       </c>
       <c r="AK13" s="2" t="n">
-        <v>59.63736000010523</v>
+        <v>40.22501600002492</v>
       </c>
       <c r="AL13" s="2" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: 4795.943553715987</t>
+          <t>Objective function: 3684.0017534916906</t>
         </is>
       </c>
     </row>
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>478.5221866629057</v>
+        <v>450.8470681518072</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.401550889921261</v>
+        <v>29.60864085142486</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>479.923737552827</v>
+        <v>480.4557090032321</v>
       </c>
     </row>
     <row r="18">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>71.92244707847135</v>
+        <v>55.33750105844443</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.903048145537419</v>
+        <v>1.665259800349359</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>73.82549522400878</v>
+        <v>57.00276085879379</v>
       </c>
     </row>
     <row r="19">
@@ -1608,7 +1608,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>67.94666666666667</v>
+        <v>52.26666666666667</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>67.94666666666667</v>
+        <v>52.26666666666667</v>
       </c>
     </row>
     <row r="20">
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.570443733258115</v>
+        <v>9.016941363036143</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.02803101779842522</v>
+        <v>0.5921728170284972</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9.598474751056539</v>
+        <v>9.60911418006464</v>
       </c>
     </row>
     <row r="21">
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>9.344232477696152e-10</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>9.344232477696152e-10</v>
       </c>
     </row>
     <row r="22">
@@ -1686,7 +1686,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-8185.320000002356</v>
+        <v>-6296.400000027865</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-375.9687360003509</v>
+        <v>-407.8784160000313</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-8561.288736002707</v>
+        <v>-6704.278416027896</v>
       </c>
     </row>
     <row r="23">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>627.9617441413019</v>
+        <v>567.4681772408888</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.429581907719687</v>
+        <v>30.20081366845336</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>629.3913260490216</v>
+        <v>597.6689909093421</v>
       </c>
     </row>
     <row r="25">
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>12723.9424</v>
+        <v>9787.647999999999</v>
       </c>
     </row>
     <row r="27">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.849966901635959</v>
+        <v>2.925749948063538</v>
       </c>
     </row>
     <row r="28">
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.04859676803569111</v>
+        <v>0.03742866218125347</v>
       </c>
     </row>
     <row r="30">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>6.111409920000866</v>
+        <v>4.863361783377566</v>
       </c>
     </row>
     <row r="33">
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>67.07860336800782</v>
+        <v>51.64993512656561</v>
       </c>
     </row>
     <row r="34">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.6354819360000777</v>
+        <v>0.4894639488506286</v>
       </c>
     </row>
   </sheetData>

--- a/ResultsV3.xlsx
+++ b/ResultsV3.xlsx
@@ -452,17 +452,17 @@
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>Phoshporic acid(2, 4, 1)</t>
+          <t>Centrifugation(2, 3, 1)</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>FAKE(3, 3, 3)</t>
+          <t>Phoshporic acid(3, 2, 1)</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>Centrifugation(4, 3, 2)</t>
+          <t>Deionized water(4, 2, 1)</t>
         </is>
       </c>
       <c r="U5" s="1" t="inlineStr">
@@ -472,17 +472,17 @@
       </c>
       <c r="Z5" s="1" t="inlineStr">
         <is>
-          <t>Vacuum flash evaporation(6, 3, 2)</t>
+          <t>Phoshporic acid(6, 2, 2)</t>
         </is>
       </c>
       <c r="AE5" s="1" t="inlineStr">
         <is>
-          <t>Centrifugation(7, 3, 2)</t>
+          <t>Washing(7, 2, 2)</t>
         </is>
       </c>
       <c r="AJ5" s="1" t="inlineStr">
         <is>
-          <t>Sell3(8, 3, 2)</t>
+          <t>Centrifugation(8, 2, 3)</t>
         </is>
       </c>
     </row>
@@ -679,47 +679,47 @@
         </is>
       </c>
       <c r="I7" s="2" t="n">
+        <v>311</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>996.9300000000267</v>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Ref cost</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
         <v>21.0066</v>
       </c>
-      <c r="K7" s="2" t="inlineStr">
+      <c r="P7" s="2" t="inlineStr">
         <is>
           <t>FAME</t>
         </is>
       </c>
-      <c r="L7" s="2" t="n">
-        <v>1007.000000000027</v>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="Q7" s="2" t="n">
+        <v>996.9300000000276</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Ref cost</t>
         </is>
       </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
+      <c r="S7" s="2" t="n">
+        <v>20.021</v>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
         <is>
           <t>FAME</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="n">
-        <v>1007.000000000095</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ref cost</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="n">
-        <v>311</v>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>FAME</t>
-        </is>
-      </c>
       <c r="V7" s="2" t="n">
-        <v>996.9300000003149</v>
+        <v>996.9300000000276</v>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>10.07000000000099</v>
+        <v>10.07000000000001</v>
       </c>
       <c r="AB7" s="2" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>21.8</v>
+        <v>21</v>
       </c>
       <c r="AE7" s="2" t="inlineStr">
         <is>
@@ -751,7 +751,7 @@
         </is>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>10.07000000000179</v>
+        <v>10.07000000000039</v>
       </c>
       <c r="AG7" s="2" t="inlineStr">
         <is>
@@ -759,23 +759,23 @@
         </is>
       </c>
       <c r="AH7" s="2" t="n">
+        <v>20.036</v>
+      </c>
+      <c r="AJ7" s="2" t="inlineStr">
+        <is>
+          <t>FAME</t>
+        </is>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>0.2014000000030056</v>
+      </c>
+      <c r="AL7" s="2" t="inlineStr">
+        <is>
+          <t>Ref cost</t>
+        </is>
+      </c>
+      <c r="AM7" s="2" t="n">
         <v>311</v>
-      </c>
-      <c r="AJ7" s="2" t="inlineStr">
-        <is>
-          <t>FAME</t>
-        </is>
-      </c>
-      <c r="AK7" s="2" t="n">
-        <v>0.1007000000036912</v>
-      </c>
-      <c r="AL7" s="2" t="inlineStr">
-        <is>
-          <t>Ref cost</t>
-        </is>
-      </c>
-      <c r="AM7" s="2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.380000000000001</v>
+        <v>2.379999999995359</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
@@ -809,47 +809,47 @@
         </is>
       </c>
       <c r="I8" s="2" t="n">
+        <v>4917</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>1.427999999997041</v>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>Ref size</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="K8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>MeOH</t>
         </is>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>2.380000000002839</v>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="Q8" s="2" t="n">
+        <v>1.427999999997041</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Ref size</t>
         </is>
       </c>
-      <c r="N8" s="2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
+      <c r="S8" s="2" t="n">
+        <v>1188</v>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
         <is>
           <t>MeOH</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="n">
-        <v>2.3800000000082</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Ref size</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="n">
-        <v>4917</v>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>MeOH</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="n">
-        <v>1.428000000015844</v>
+        <v>0.1427999999997041</v>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.952000000004861</v>
+        <v>0.9519999999980797</v>
       </c>
       <c r="AB8" s="2" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>7492</v>
+        <v>128</v>
       </c>
       <c r="AE8" s="2" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>0.01904000000635945</v>
+        <v>0.9519999999978097</v>
       </c>
       <c r="AG8" s="2" t="inlineStr">
         <is>
@@ -889,23 +889,23 @@
         </is>
       </c>
       <c r="AH8" s="2" t="n">
+        <v>1188</v>
+      </c>
+      <c r="AJ8" s="2" t="inlineStr">
+        <is>
+          <t>MeOH</t>
+        </is>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>0.3617599999957726</v>
+      </c>
+      <c r="AL8" s="2" t="inlineStr">
+        <is>
+          <t>Ref size</t>
+        </is>
+      </c>
+      <c r="AM8" s="2" t="n">
         <v>4917</v>
-      </c>
-      <c r="AJ8" s="2" t="inlineStr">
-        <is>
-          <t>MeOH</t>
-        </is>
-      </c>
-      <c r="AK8" s="2" t="n">
-        <v>0.007616000016885479</v>
-      </c>
-      <c r="AL8" s="2" t="inlineStr">
-        <is>
-          <t>Ref size</t>
-        </is>
-      </c>
-      <c r="AM8" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -939,47 +939,47 @@
         </is>
       </c>
       <c r="I9" s="2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>1.040000000002455</v>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>E factor</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="K9" s="2" t="inlineStr">
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>GL</t>
         </is>
       </c>
-      <c r="L9" s="2" t="n">
-        <v>104.0000000000026</v>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
+      <c r="Q9" s="2" t="n">
+        <v>1.040000000002465</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>E factor</t>
         </is>
       </c>
-      <c r="N9" s="2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
+      <c r="S9" s="2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
         <is>
           <t>GL</t>
         </is>
       </c>
-      <c r="Q9" s="2" t="n">
-        <v>104.0000000000084</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>E factor</t>
-        </is>
-      </c>
-      <c r="S9" s="2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="U9" s="2" t="inlineStr">
-        <is>
-          <t>GL</t>
-        </is>
-      </c>
       <c r="V9" s="2" t="n">
-        <v>1.040000000004716</v>
+        <v>0.1040000000002465</v>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="AA9" s="2" t="n">
-        <v>102.9600000000099</v>
+        <v>102.96</v>
       </c>
       <c r="AB9" s="2" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         </is>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="AE9" s="2" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="AF9" s="2" t="n">
-        <v>102.9600000000207</v>
+        <v>102.9600000000028</v>
       </c>
       <c r="AG9" s="2" t="inlineStr">
         <is>
@@ -1019,23 +1019,23 @@
         </is>
       </c>
       <c r="AH9" s="2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AJ9" s="2" t="inlineStr">
+        <is>
+          <t>GL</t>
+        </is>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>101.9304000034979</v>
+      </c>
+      <c r="AL9" s="2" t="inlineStr">
+        <is>
+          <t>E factor</t>
+        </is>
+      </c>
+      <c r="AM9" s="2" t="n">
         <v>0.49</v>
-      </c>
-      <c r="AJ9" s="2" t="inlineStr">
-        <is>
-          <t>GL</t>
-        </is>
-      </c>
-      <c r="AK9" s="2" t="n">
-        <v>101.9304000000475</v>
-      </c>
-      <c r="AL9" s="2" t="inlineStr">
-        <is>
-          <t>E factor</t>
-        </is>
-      </c>
-      <c r="AM9" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1069,7 +1069,7 @@
         </is>
       </c>
       <c r="I10" s="2" t="n">
-        <v>394.1</v>
+        <v>499.6</v>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="S10" s="2" t="n">
-        <v>499.6</v>
+        <v>394.1</v>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="AA10" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB10" s="2" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         </is>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>541.7</v>
+        <v>394.1</v>
       </c>
       <c r="AE10" s="2" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="AH10" s="2" t="n">
-        <v>499.6</v>
+        <v>394.1</v>
       </c>
       <c r="AJ10" s="2" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="AM10" s="2" t="n">
-        <v>400</v>
+        <v>499.6</v>
       </c>
     </row>
     <row r="11">
@@ -1191,111 +1191,111 @@
         </is>
       </c>
       <c r="G11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Cost corr</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>0.6003731178045263</v>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="M11" s="2" t="inlineStr">
         <is>
           <t>Cost corr</t>
         </is>
       </c>
-      <c r="I11" s="2" t="n">
-        <v>4.987796837644479</v>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
+      <c r="N11" s="2" t="n">
+        <v>4.726364860472534</v>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
-      <c r="L11" s="2" t="n">
-        <v>8.000000000000236</v>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
+      <c r="Q11" s="2" t="n">
+        <v>1008</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Cost corr</t>
         </is>
       </c>
-      <c r="N11" s="2" t="n">
-        <v>1.800541665729269</v>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
+      <c r="S11" s="2" t="n">
+        <v>2.41086609910239</v>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
-      <c r="Q11" s="2" t="n">
-        <v>8.000000000000808</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="V11" s="2" t="n">
+        <v>403.2</v>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
         <is>
           <t>Cost corr</t>
         </is>
       </c>
-      <c r="S11" s="2" t="n">
-        <v>0.5998832750157257</v>
-      </c>
-      <c r="U11" s="2" t="inlineStr">
+      <c r="X11" s="2" t="n">
+        <v>1.655048594134009</v>
+      </c>
+      <c r="Z11" s="2" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
-      <c r="V11" s="2" t="n">
+      <c r="AA11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="W11" s="2" t="inlineStr">
+      <c r="AB11" s="2" t="inlineStr">
         <is>
           <t>Cost corr</t>
         </is>
       </c>
-      <c r="X11" s="2" t="n">
-        <v>1.36253617621918</v>
-      </c>
-      <c r="Z11" s="2" t="inlineStr">
+      <c r="AC11" s="2" t="n">
+        <v>1.447125705647355</v>
+      </c>
+      <c r="AE11" s="2" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
-      <c r="AA11" s="2" t="n">
-        <v>8.000000000001656</v>
-      </c>
-      <c r="AB11" s="2" t="inlineStr">
+      <c r="AF11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2" t="inlineStr">
         <is>
           <t>Cost corr</t>
         </is>
       </c>
-      <c r="AC11" s="2" t="n">
-        <v>0.1186907841052618</v>
-      </c>
-      <c r="AE11" s="2" t="inlineStr">
+      <c r="AH11" s="2" t="n">
+        <v>0.1582029533770475</v>
+      </c>
+      <c r="AJ11" s="2" t="inlineStr">
         <is>
           <t>Water</t>
         </is>
       </c>
-      <c r="AF11" s="2" t="n">
-        <v>0.16000000000201</v>
-      </c>
-      <c r="AG11" s="2" t="inlineStr">
+      <c r="AK11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2" t="inlineStr">
         <is>
           <t>Cost corr</t>
         </is>
       </c>
-      <c r="AH11" s="2" t="n">
-        <v>0.1862437621527311</v>
-      </c>
-      <c r="AJ11" s="2" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="AK11" s="2" t="n">
-        <v>0.1600000000120338</v>
-      </c>
-      <c r="AL11" s="2" t="inlineStr">
-        <is>
-          <t>Cost corr</t>
-        </is>
-      </c>
       <c r="AM11" s="2" t="n">
-        <v>155.2142999251329</v>
+        <v>0.176433870432498</v>
       </c>
     </row>
     <row r="12">
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="I12" s="2" t="n">
-        <v>104.7766530496625</v>
+        <v>186.7160396372077</v>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="N12" s="2" t="n">
-        <v>0</v>
+        <v>99.28485607800233</v>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="S12" s="2" t="n">
-        <v>186.5636985298907</v>
+        <v>48.26795017012895</v>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="X12" s="2" t="n">
-        <v>81.75217057315078</v>
+        <v>99.30291564804052</v>
       </c>
       <c r="Z12" s="2" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>2.587459093494707</v>
+        <v>30.38963981859446</v>
       </c>
       <c r="AE12" s="2" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="AH12" s="2" t="n">
-        <v>57.92181002949938</v>
+        <v>3.169754373862524</v>
       </c>
       <c r="AJ12" s="2" t="inlineStr">
         <is>
@@ -1425,7 +1425,7 @@
         </is>
       </c>
       <c r="AM12" s="2" t="n">
-        <v>0</v>
+        <v>54.87093370450689</v>
       </c>
     </row>
     <row r="13">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="I13" s="2" t="n">
-        <v>76.62969958157835</v>
+        <v>136.5570822125759</v>
       </c>
       <c r="K13" s="2" t="n"/>
       <c r="L13" s="2" t="n"/>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0</v>
+        <v>72.6132060226376</v>
       </c>
       <c r="P13" s="2" t="n"/>
       <c r="Q13" s="2" t="n"/>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="S13" s="2" t="n">
-        <v>136.4456656617714</v>
+        <v>35.30136164210573</v>
       </c>
       <c r="U13" s="2" t="n"/>
       <c r="V13" s="2" t="n"/>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="X13" s="2" t="n">
-        <v>59.79045988606977</v>
+        <v>72.62641411228657</v>
       </c>
       <c r="Z13" s="2" t="n"/>
       <c r="AA13" s="2" t="n"/>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>1.892370172581698</v>
+        <v>22.22583850418923</v>
       </c>
       <c r="AE13" s="2" t="n"/>
       <c r="AF13" s="2" t="n"/>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="AH13" s="2" t="n">
-        <v>42.36183131062599</v>
+        <v>2.318239019348611</v>
       </c>
       <c r="AJ13" s="2" t="n"/>
       <c r="AK13" s="2" t="n"/>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="AM13" s="2" t="n">
-        <v>0</v>
+        <v>40.13053522089585</v>
       </c>
     </row>
     <row r="14">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1184.38</v>
+        <v>1176.379999999996</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1533,7 +1533,7 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1174.380000000033</v>
+        <v>1065.398000000026</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>1174.380000000113</v>
+        <v>2060.398000000027</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1052.398000000335</v>
+        <v>1453.376800000028</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="AA14" t="n">
-        <v>121.9820000000272</v>
+        <v>118.9819999999981</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>113.2090400000309</v>
+        <v>113.982000000001</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -1573,13 +1573,13 @@
         </is>
       </c>
       <c r="AK14" t="n">
-        <v>102.1987160000849</v>
+        <v>102.4935600034966</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Objective function: -2299.7968999884633</t>
+          <t>Objective function: -1722.939360070048</t>
         </is>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>606.7086193778697</v>
+        <v>650.9408582380515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>44.25420148310861</v>
+        <v>64.67461274440728</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>650.9628208609782</v>
+        <v>715.6154709824588</v>
       </c>
     </row>
     <row r="18">
@@ -1648,7 +1648,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>182.8822298912424</v>
+        <v>233.6299047539235</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6.306933000481426</v>
+        <v>0.40933601473158</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>189.1891628917239</v>
+        <v>234.039240768655</v>
       </c>
     </row>
     <row r="19">
@@ -1674,7 +1674,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.26666666666667</v>
+        <v>26.13333333333334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>26.13333333333334</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12.13417238755739</v>
+        <v>13.01881716476103</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.8850840296621723</v>
+        <v>1.293492254888146</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>13.01925641721957</v>
+        <v>14.31230941964918</v>
       </c>
     </row>
     <row r="21">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>395.5964160000052</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>34.46815680000029</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>430.0645728000055</v>
       </c>
     </row>
     <row r="22">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-11963.16000000378</v>
+        <v>-11963.16000000033</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1039.690080000485</v>
+        <v>-1029.293179235321</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-13002.85008000426</v>
+        <v>-12992.45317923565</v>
       </c>
     </row>
     <row r="23">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>853.9916883233362</v>
+        <v>1319.319329490074</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>45.13928551277079</v>
+        <v>100.4362617992957</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>899.1309738361069</v>
+        <v>1419.75559128937</v>
       </c>
     </row>
     <row r="25">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7.083192053724497</v>
+        <v>52.91282163938406</v>
       </c>
     </row>
     <row r="28">
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.07101412596676716</v>
+        <v>0.07740623685067229</v>
       </c>
     </row>
     <row r="30">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.798405300481056</v>
+        <v>9.690229646731627</v>
       </c>
     </row>
     <row r="33">
@@ -1873,7 +1873,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>179.1737119200426</v>
+        <v>222.8704217600034</v>
       </c>
     </row>
     <row r="34">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.217045671200254</v>
+        <v>1.478589361920021</v>
       </c>
     </row>
   </sheetData>
